--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_23_40.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_23_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2363919.418878246</v>
+        <v>2363222.206803493</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9791381.184977552</v>
+        <v>9791381.184977561</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681855</v>
+        <v>590120.965168186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7554893.661266428</v>
+        <v>7554893.661266427</v>
       </c>
     </row>
     <row r="11">
@@ -1370,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>109.561477284445</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>109.561477284445</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>36.52913045842445</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>109.5614772844452</v>
       </c>
       <c r="H11" t="n">
-        <v>109.561477284445</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>14.6027240492544</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>45.36989468446009</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>96.5017491921393</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>109.5614772844452</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>109.5614772844452</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>18.57281058888602</v>
+        <v>18.57281058888622</v>
       </c>
       <c r="V12" t="n">
-        <v>25.84283118547808</v>
+        <v>25.84283118547827</v>
       </c>
       <c r="W12" t="n">
-        <v>43.92344689582299</v>
+        <v>43.92344689582319</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>12.19046343716803</v>
+        <v>12.19046343716823</v>
       </c>
       <c r="T13" t="n">
-        <v>21.26109377168826</v>
+        <v>21.26109377168845</v>
       </c>
       <c r="U13" t="n">
-        <v>79.97353471945343</v>
+        <v>79.97353471945362</v>
       </c>
       <c r="V13" t="n">
-        <v>46.87045121276211</v>
+        <v>46.8704512127623</v>
       </c>
       <c r="W13" t="n">
-        <v>80.02667703323849</v>
+        <v>80.02667703323868</v>
       </c>
       <c r="X13" t="n">
-        <v>20.0744600781322</v>
+        <v>20.0744600781324</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.68277401359117</v>
+        <v>12.68277401359137</v>
       </c>
     </row>
     <row r="14">
@@ -1610,16 +1610,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>109.5614772844452</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>96.50174919213904</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>109.561477284445</v>
+        <v>51.13185450767919</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>45.36989468446021</v>
       </c>
       <c r="V14" t="n">
-        <v>109.561477284445</v>
+        <v>109.5614772844452</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>109.5614772844452</v>
       </c>
       <c r="Y14" t="n">
-        <v>109.561477284445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>18.57281058888596</v>
+        <v>18.57281058888613</v>
       </c>
       <c r="V15" t="n">
-        <v>25.84283118547802</v>
+        <v>25.84283118547819</v>
       </c>
       <c r="W15" t="n">
-        <v>43.92344689582293</v>
+        <v>43.9234468958231</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>12.19046343716797</v>
+        <v>12.19046343716814</v>
       </c>
       <c r="T16" t="n">
-        <v>21.2610937716882</v>
+        <v>21.26109377168837</v>
       </c>
       <c r="U16" t="n">
-        <v>79.97353471945337</v>
+        <v>79.97353471945354</v>
       </c>
       <c r="V16" t="n">
-        <v>46.87045121276205</v>
+        <v>46.87045121276222</v>
       </c>
       <c r="W16" t="n">
-        <v>80.02667703323843</v>
+        <v>80.0266770332386</v>
       </c>
       <c r="X16" t="n">
-        <v>20.07446007813215</v>
+        <v>20.07446007813232</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.68277401359111</v>
+        <v>12.68277401359128</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50.94519922159066</v>
+        <v>50.94519922159071</v>
       </c>
       <c r="C17" t="n">
-        <v>34.21388490913824</v>
+        <v>34.2138849091383</v>
       </c>
       <c r="D17" t="n">
-        <v>23.833521984794</v>
+        <v>23.83352198479406</v>
       </c>
       <c r="E17" t="n">
-        <v>50.34682498548307</v>
+        <v>50.34682498548312</v>
       </c>
       <c r="F17" t="n">
-        <v>74.52265271073645</v>
+        <v>74.52265271073651</v>
       </c>
       <c r="G17" t="n">
-        <v>81.55894166018555</v>
+        <v>81.55894166018561</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>17.7589062307502</v>
+        <v>17.75890623075026</v>
       </c>
       <c r="X17" t="n">
-        <v>38.090388361365</v>
+        <v>38.09038836136506</v>
       </c>
       <c r="Y17" t="n">
-        <v>53.91586098143142</v>
+        <v>53.91586098143148</v>
       </c>
     </row>
     <row r="18">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50.94519922159066</v>
+        <v>50.94519922159071</v>
       </c>
       <c r="C20" t="n">
-        <v>34.21388490913824</v>
+        <v>34.2138849091383</v>
       </c>
       <c r="D20" t="n">
-        <v>23.833521984794</v>
+        <v>23.83352198479406</v>
       </c>
       <c r="E20" t="n">
-        <v>50.34682498548307</v>
+        <v>50.34682498548312</v>
       </c>
       <c r="F20" t="n">
-        <v>74.52265271073645</v>
+        <v>74.52265271073651</v>
       </c>
       <c r="G20" t="n">
-        <v>81.55894166018555</v>
+        <v>81.55894166018561</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>17.75890623074934</v>
+        <v>17.75890623075026</v>
       </c>
       <c r="X20" t="n">
-        <v>38.090388361365</v>
+        <v>38.09038836136506</v>
       </c>
       <c r="Y20" t="n">
-        <v>53.91586098143142</v>
+        <v>53.91586098143148</v>
       </c>
     </row>
     <row r="21">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>218.7458996381567</v>
+        <v>218.7458996381568</v>
       </c>
       <c r="C29" t="n">
-        <v>202.0145853257043</v>
+        <v>202.0145853257044</v>
       </c>
       <c r="D29" t="n">
-        <v>191.63422240136</v>
+        <v>191.6342224013601</v>
       </c>
       <c r="E29" t="n">
-        <v>218.1475254020491</v>
+        <v>218.1475254020492</v>
       </c>
       <c r="F29" t="n">
-        <v>242.3233531273025</v>
+        <v>242.3233531273026</v>
       </c>
       <c r="G29" t="n">
-        <v>249.3596420767516</v>
+        <v>249.3596420767517</v>
       </c>
       <c r="H29" t="n">
         <v>167.8007004165661</v>
       </c>
       <c r="I29" t="n">
-        <v>20.02865584088116</v>
+        <v>20.02865584088124</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>28.93982322889947</v>
+        <v>28.93982322889956</v>
       </c>
       <c r="T29" t="n">
-        <v>55.69811355019309</v>
+        <v>55.69811355019318</v>
       </c>
       <c r="U29" t="n">
-        <v>86.46528418539879</v>
+        <v>86.46528418539887</v>
       </c>
       <c r="V29" t="n">
-        <v>163.562711169281</v>
+        <v>163.5627111692811</v>
       </c>
       <c r="W29" t="n">
-        <v>185.5596066473162</v>
+        <v>185.5596066473163</v>
       </c>
       <c r="X29" t="n">
-        <v>205.891088777931</v>
+        <v>205.8910887779311</v>
       </c>
       <c r="Y29" t="n">
         <v>221.7165613979975</v>
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.4016152571064708</v>
+        <v>0.4016152571065561</v>
       </c>
       <c r="C30" t="n">
-        <v>6.055073574162634</v>
+        <v>6.055073574162719</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>32.28063304949951</v>
+        <v>32.28063304949959</v>
       </c>
       <c r="U30" t="n">
-        <v>59.66820008982472</v>
+        <v>59.6682000898248</v>
       </c>
       <c r="V30" t="n">
-        <v>66.93822068641677</v>
+        <v>66.93822068641686</v>
       </c>
       <c r="W30" t="n">
-        <v>85.01883639676169</v>
+        <v>85.01883639676177</v>
       </c>
       <c r="X30" t="n">
-        <v>39.49111925523991</v>
+        <v>39.49111925523999</v>
       </c>
       <c r="Y30" t="n">
-        <v>38.70064106534767</v>
+        <v>38.70064106534775</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15.11318113744545</v>
+        <v>15.11318113744554</v>
       </c>
       <c r="C31" t="n">
-        <v>2.366042577963981</v>
+        <v>2.366042577964066</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.683755257251283</v>
+        <v>2.683755257251369</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>53.28585293810672</v>
+        <v>53.28585293810681</v>
       </c>
       <c r="T31" t="n">
-        <v>62.35648327262695</v>
+        <v>62.35648327262703</v>
       </c>
       <c r="U31" t="n">
-        <v>121.0689242203921</v>
+        <v>121.0689242203922</v>
       </c>
       <c r="V31" t="n">
-        <v>87.9658407137008</v>
+        <v>87.96584071370089</v>
       </c>
       <c r="W31" t="n">
-        <v>121.1220665341772</v>
+        <v>121.1220665341773</v>
       </c>
       <c r="X31" t="n">
-        <v>61.1698495790709</v>
+        <v>61.16984957907098</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.77816351452987</v>
+        <v>53.77816351452995</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>218.7458996381568</v>
+        <v>218.7458996381567</v>
       </c>
       <c r="C32" t="n">
-        <v>202.0145853257044</v>
+        <v>202.0145853257043</v>
       </c>
       <c r="D32" t="n">
         <v>191.6342224013601</v>
       </c>
       <c r="E32" t="n">
-        <v>218.1475254020492</v>
+        <v>218.1475254020491</v>
       </c>
       <c r="F32" t="n">
-        <v>242.3233531273026</v>
+        <v>242.3233531273025</v>
       </c>
       <c r="G32" t="n">
-        <v>249.3596420767517</v>
+        <v>249.3596420767516</v>
       </c>
       <c r="H32" t="n">
         <v>167.8007004165661</v>
       </c>
       <c r="I32" t="n">
-        <v>20.02865584088124</v>
+        <v>20.02865584088119</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>28.93982322889957</v>
+        <v>28.93982322889951</v>
       </c>
       <c r="T32" t="n">
-        <v>55.69811355019317</v>
+        <v>55.69811355019311</v>
       </c>
       <c r="U32" t="n">
-        <v>86.46528418539887</v>
+        <v>86.46528418539881</v>
       </c>
       <c r="V32" t="n">
-        <v>163.5627111692811</v>
+        <v>163.562711169281</v>
       </c>
       <c r="W32" t="n">
         <v>185.5596066473163</v>
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.4016152571065561</v>
+        <v>0.4016152571064993</v>
       </c>
       <c r="C33" t="n">
-        <v>6.055073574162719</v>
+        <v>6.055073574162662</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>32.28063304949959</v>
+        <v>32.28063304949954</v>
       </c>
       <c r="U33" t="n">
-        <v>59.6682000898248</v>
+        <v>59.66820008982474</v>
       </c>
       <c r="V33" t="n">
-        <v>66.93822068641686</v>
+        <v>66.9382206864168</v>
       </c>
       <c r="W33" t="n">
-        <v>85.01883639676177</v>
+        <v>85.01883639676171</v>
       </c>
       <c r="X33" t="n">
-        <v>39.49111925523999</v>
+        <v>39.49111925523994</v>
       </c>
       <c r="Y33" t="n">
-        <v>38.70064106534775</v>
+        <v>38.7006410653477</v>
       </c>
     </row>
     <row r="34">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.11318113744554</v>
+        <v>15.11318113744548</v>
       </c>
       <c r="C34" t="n">
-        <v>2.366042577964066</v>
+        <v>2.366042577964009</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.683755257251369</v>
+        <v>2.683755257251312</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>53.28585293810681</v>
+        <v>53.28585293810675</v>
       </c>
       <c r="T34" t="n">
-        <v>62.35648327262703</v>
+        <v>62.35648327262697</v>
       </c>
       <c r="U34" t="n">
-        <v>121.0689242203922</v>
+        <v>121.0689242203921</v>
       </c>
       <c r="V34" t="n">
-        <v>87.96584071370089</v>
+        <v>87.96584071370083</v>
       </c>
       <c r="W34" t="n">
-        <v>121.1220665341773</v>
+        <v>121.1220665341772</v>
       </c>
       <c r="X34" t="n">
-        <v>61.16984957907098</v>
+        <v>61.16984957907093</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.77816351452995</v>
+        <v>53.77816351452989</v>
       </c>
     </row>
     <row r="35">
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>189.8060764092572</v>
+        <v>189.8060764092571</v>
       </c>
       <c r="C35" t="n">
-        <v>173.0747620968048</v>
+        <v>173.0747620968047</v>
       </c>
       <c r="D35" t="n">
         <v>162.6943991724605</v>
       </c>
       <c r="E35" t="n">
-        <v>189.2077021731496</v>
+        <v>189.2077021731495</v>
       </c>
       <c r="F35" t="n">
-        <v>213.383529898403</v>
+        <v>213.3835298984029</v>
       </c>
       <c r="G35" t="n">
-        <v>220.4198188478521</v>
+        <v>220.419818847852</v>
       </c>
       <c r="H35" t="n">
         <v>138.8608771876665</v>
@@ -3317,13 +3317,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>26.7582903212936</v>
+        <v>26.75829032129353</v>
       </c>
       <c r="U35" t="n">
-        <v>57.5254609564993</v>
+        <v>57.52546095649922</v>
       </c>
       <c r="V35" t="n">
-        <v>134.6228879403815</v>
+        <v>134.6228879403814</v>
       </c>
       <c r="W35" t="n">
         <v>156.6197834184167</v>
@@ -3332,7 +3332,7 @@
         <v>176.9512655490315</v>
       </c>
       <c r="Y35" t="n">
-        <v>192.776738169098</v>
+        <v>192.7767381690979</v>
       </c>
     </row>
     <row r="36">
@@ -3396,22 +3396,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>3.340809820600025</v>
+        <v>3.34080982059994</v>
       </c>
       <c r="U36" t="n">
-        <v>30.72837686092523</v>
+        <v>30.72837686092514</v>
       </c>
       <c r="V36" t="n">
-        <v>37.99839745751729</v>
+        <v>37.9983974575172</v>
       </c>
       <c r="W36" t="n">
-        <v>56.0790131678622</v>
+        <v>56.07901316786212</v>
       </c>
       <c r="X36" t="n">
-        <v>10.55129602634042</v>
+        <v>10.55129602634034</v>
       </c>
       <c r="Y36" t="n">
-        <v>9.760817836448183</v>
+        <v>9.760817836448098</v>
       </c>
     </row>
     <row r="37">
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.34602970920724</v>
+        <v>24.34602970920715</v>
       </c>
       <c r="T37" t="n">
-        <v>33.41666004372746</v>
+        <v>33.41666004372738</v>
       </c>
       <c r="U37" t="n">
-        <v>92.12910099149263</v>
+        <v>92.12910099149255</v>
       </c>
       <c r="V37" t="n">
-        <v>59.02601748480132</v>
+        <v>59.02601748480123</v>
       </c>
       <c r="W37" t="n">
-        <v>92.18224330527769</v>
+        <v>92.18224330527761</v>
       </c>
       <c r="X37" t="n">
-        <v>32.23002635017141</v>
+        <v>32.23002635017133</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.83834028563038</v>
+        <v>24.8383402856303</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>189.8060764092573</v>
+        <v>189.8060764092572</v>
       </c>
       <c r="C38" t="n">
         <v>173.0747620968048</v>
       </c>
       <c r="D38" t="n">
-        <v>162.6943991724606</v>
+        <v>162.6943991724605</v>
       </c>
       <c r="E38" t="n">
-        <v>189.2077021731497</v>
+        <v>189.2077021731496</v>
       </c>
       <c r="F38" t="n">
-        <v>213.3835298984031</v>
+        <v>213.383529898403</v>
       </c>
       <c r="G38" t="n">
-        <v>220.4198188478522</v>
+        <v>220.4198188478521</v>
       </c>
       <c r="H38" t="n">
-        <v>138.8608771876666</v>
+        <v>138.8608771876665</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>26.75829032129366</v>
+        <v>26.75829032129358</v>
       </c>
       <c r="U38" t="n">
-        <v>57.52546095649936</v>
+        <v>57.52546095649927</v>
       </c>
       <c r="V38" t="n">
-        <v>134.6228879403816</v>
+        <v>134.6228879403815</v>
       </c>
       <c r="W38" t="n">
-        <v>156.6197834184168</v>
+        <v>156.6197834184167</v>
       </c>
       <c r="X38" t="n">
-        <v>176.9512655490316</v>
+        <v>176.9512655490315</v>
       </c>
       <c r="Y38" t="n">
-        <v>192.776738169098</v>
+        <v>192.7767381690979</v>
       </c>
     </row>
     <row r="39">
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>3.340809820600082</v>
+        <v>3.340809820599997</v>
       </c>
       <c r="U39" t="n">
-        <v>30.72837686092528</v>
+        <v>30.7283768609252</v>
       </c>
       <c r="V39" t="n">
-        <v>37.99839745751734</v>
+        <v>37.99839745751726</v>
       </c>
       <c r="W39" t="n">
-        <v>56.07901316786226</v>
+        <v>56.07901316786217</v>
       </c>
       <c r="X39" t="n">
-        <v>10.55129602634048</v>
+        <v>10.5512960263404</v>
       </c>
       <c r="Y39" t="n">
-        <v>9.76081783644824</v>
+        <v>9.760817836448155</v>
       </c>
     </row>
     <row r="40">
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.34602970920729</v>
+        <v>24.34602970920721</v>
       </c>
       <c r="T40" t="n">
-        <v>33.41666004372752</v>
+        <v>33.41666004372743</v>
       </c>
       <c r="U40" t="n">
-        <v>92.12910099149269</v>
+        <v>92.12910099149261</v>
       </c>
       <c r="V40" t="n">
-        <v>59.02601748480137</v>
+        <v>59.02601748480129</v>
       </c>
       <c r="W40" t="n">
-        <v>92.18224330527775</v>
+        <v>92.18224330527767</v>
       </c>
       <c r="X40" t="n">
-        <v>32.23002635017147</v>
+        <v>32.23002635017139</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.83834028563044</v>
+        <v>24.83834028563035</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>173.0747620968048</v>
       </c>
       <c r="D41" t="n">
-        <v>162.6943991724606</v>
+        <v>162.6943991724605</v>
       </c>
       <c r="E41" t="n">
         <v>189.2077021731496</v>
@@ -3755,7 +3755,7 @@
         <v>220.4198188478521</v>
       </c>
       <c r="H41" t="n">
-        <v>138.8608771876666</v>
+        <v>138.8608771876665</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,19 +3791,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>26.75829032129364</v>
+        <v>26.75829032129361</v>
       </c>
       <c r="U41" t="n">
-        <v>57.52546095649933</v>
+        <v>57.5254609564993</v>
       </c>
       <c r="V41" t="n">
         <v>134.6228879403815</v>
       </c>
       <c r="W41" t="n">
-        <v>156.6197834184168</v>
+        <v>156.6197834184167</v>
       </c>
       <c r="X41" t="n">
-        <v>176.9512655490316</v>
+        <v>176.9512655490315</v>
       </c>
       <c r="Y41" t="n">
         <v>192.776738169098</v>
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>3.340809820600054</v>
+        <v>3.340809820600025</v>
       </c>
       <c r="U42" t="n">
-        <v>30.72837686092526</v>
+        <v>30.72837686092523</v>
       </c>
       <c r="V42" t="n">
-        <v>37.99839745751731</v>
+        <v>37.99839745751729</v>
       </c>
       <c r="W42" t="n">
-        <v>56.07901316786223</v>
+        <v>56.0790131678622</v>
       </c>
       <c r="X42" t="n">
-        <v>10.55129602634045</v>
+        <v>10.55129602634042</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.760817836448211</v>
+        <v>9.760817836448183</v>
       </c>
     </row>
     <row r="43">
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.34602970920727</v>
+        <v>24.34602970920724</v>
       </c>
       <c r="T43" t="n">
-        <v>33.41666004372749</v>
+        <v>33.41666004372746</v>
       </c>
       <c r="U43" t="n">
-        <v>92.12910099149266</v>
+        <v>92.12910099149263</v>
       </c>
       <c r="V43" t="n">
-        <v>59.02601748480134</v>
+        <v>59.02601748480132</v>
       </c>
       <c r="W43" t="n">
-        <v>92.18224330527772</v>
+        <v>92.18224330527769</v>
       </c>
       <c r="X43" t="n">
-        <v>32.23002635017144</v>
+        <v>32.23002635017141</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.83834028563041</v>
+        <v>24.83834028563038</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3980,7 @@
         <v>173.0747620968048</v>
       </c>
       <c r="D44" t="n">
-        <v>162.6943991724606</v>
+        <v>162.6943991724605</v>
       </c>
       <c r="E44" t="n">
         <v>189.2077021731496</v>
@@ -3992,7 +3992,7 @@
         <v>220.4198188478521</v>
       </c>
       <c r="H44" t="n">
-        <v>138.8608771876666</v>
+        <v>138.8608771876665</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,19 +4028,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>26.75829032129364</v>
+        <v>26.75829032129361</v>
       </c>
       <c r="U44" t="n">
-        <v>57.52546095649933</v>
+        <v>57.5254609564993</v>
       </c>
       <c r="V44" t="n">
         <v>134.6228879403815</v>
       </c>
       <c r="W44" t="n">
-        <v>156.6197834184168</v>
+        <v>156.6197834184167</v>
       </c>
       <c r="X44" t="n">
-        <v>176.9512655490316</v>
+        <v>176.9512655490315</v>
       </c>
       <c r="Y44" t="n">
         <v>192.776738169098</v>
@@ -4107,22 +4107,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>3.340809820600052</v>
+        <v>3.340809820600025</v>
       </c>
       <c r="U45" t="n">
-        <v>30.72837686092526</v>
+        <v>30.72837686092523</v>
       </c>
       <c r="V45" t="n">
-        <v>37.99839745751731</v>
+        <v>37.99839745751729</v>
       </c>
       <c r="W45" t="n">
-        <v>56.07901316786223</v>
+        <v>56.0790131678622</v>
       </c>
       <c r="X45" t="n">
-        <v>10.55129602634045</v>
+        <v>10.55129602634042</v>
       </c>
       <c r="Y45" t="n">
-        <v>9.760817836448211</v>
+        <v>9.760817836448183</v>
       </c>
     </row>
     <row r="46">
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>24.34602970920726</v>
+        <v>24.34602970920723</v>
       </c>
       <c r="T46" t="n">
-        <v>33.41666004372749</v>
+        <v>33.41666004372746</v>
       </c>
       <c r="U46" t="n">
-        <v>92.12910099149266</v>
+        <v>92.12910099149263</v>
       </c>
       <c r="V46" t="n">
-        <v>59.02601748480134</v>
+        <v>59.02601748480132</v>
       </c>
       <c r="W46" t="n">
-        <v>92.18224330527772</v>
+        <v>92.18224330527769</v>
       </c>
       <c r="X46" t="n">
-        <v>32.23002635017144</v>
+        <v>32.23002635017141</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.83834028563041</v>
+        <v>24.83834028563038</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>377.667506376452</v>
+        <v>119.4330770559326</v>
       </c>
       <c r="C11" t="n">
-        <v>266.9993475032753</v>
+        <v>119.4330770559326</v>
       </c>
       <c r="D11" t="n">
-        <v>156.3311886300985</v>
+        <v>119.4330770559326</v>
       </c>
       <c r="E11" t="n">
-        <v>119.4330770559323</v>
+        <v>119.4330770559326</v>
       </c>
       <c r="F11" t="n">
-        <v>119.4330770559323</v>
+        <v>119.4330770559326</v>
       </c>
       <c r="G11" t="n">
-        <v>119.4330770559323</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="H11" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="I11" t="n">
-        <v>29.62098450621257</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="J11" t="n">
-        <v>29.62098450621257</v>
+        <v>82.09621137865756</v>
       </c>
       <c r="K11" t="n">
-        <v>134.7806745450108</v>
+        <v>139.7251337086379</v>
       </c>
       <c r="L11" t="n">
-        <v>134.7806745450108</v>
+        <v>221.9292559132985</v>
       </c>
       <c r="M11" t="n">
-        <v>134.7806745450108</v>
+        <v>294.7890685108346</v>
       </c>
       <c r="N11" t="n">
-        <v>210.0168801743691</v>
+        <v>294.7890685108346</v>
       </c>
       <c r="O11" t="n">
-        <v>229.1053344972507</v>
+        <v>364.199481145974</v>
       </c>
       <c r="P11" t="n">
-        <v>337.5711970088512</v>
+        <v>364.199481145974</v>
       </c>
       <c r="Q11" t="n">
-        <v>397.6759205270585</v>
+        <v>409.7099311363785</v>
       </c>
       <c r="R11" t="n">
-        <v>426.2118985284611</v>
+        <v>438.2459091377808</v>
       </c>
       <c r="S11" t="n">
-        <v>438.2459091377799</v>
+        <v>438.2459091377808</v>
       </c>
       <c r="T11" t="n">
-        <v>423.4956828254017</v>
+        <v>438.2459091377808</v>
       </c>
       <c r="U11" t="n">
-        <v>377.667506376452</v>
+        <v>438.2459091377808</v>
       </c>
       <c r="V11" t="n">
-        <v>377.667506376452</v>
+        <v>340.7693948022866</v>
       </c>
       <c r="W11" t="n">
-        <v>377.667506376452</v>
+        <v>230.1012359291096</v>
       </c>
       <c r="X11" t="n">
-        <v>377.667506376452</v>
+        <v>119.4330770559326</v>
       </c>
       <c r="Y11" t="n">
-        <v>377.667506376452</v>
+        <v>119.4330770559326</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="C12" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="D12" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="E12" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="F12" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="G12" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="H12" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="I12" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="J12" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="K12" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="L12" t="n">
-        <v>97.99632087991428</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="M12" t="n">
-        <v>97.99632087991428</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="N12" t="n">
-        <v>97.99632087991428</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="O12" t="n">
-        <v>97.99632087991428</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="P12" t="n">
-        <v>97.99632087991428</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.99632087991428</v>
+        <v>97.9963208799149</v>
       </c>
       <c r="R12" t="n">
-        <v>97.99632087991428</v>
+        <v>97.9963208799149</v>
       </c>
       <c r="S12" t="n">
-        <v>97.99632087991428</v>
+        <v>97.9963208799149</v>
       </c>
       <c r="T12" t="n">
-        <v>97.99632087991428</v>
+        <v>97.9963208799149</v>
       </c>
       <c r="U12" t="n">
-        <v>79.23590614366577</v>
+        <v>79.2359061436662</v>
       </c>
       <c r="V12" t="n">
-        <v>53.13203625934448</v>
+        <v>53.1320362593447</v>
       </c>
       <c r="W12" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="X12" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="C13" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="D13" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="E13" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="F13" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="G13" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="H13" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="I13" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="J13" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="K13" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="L13" t="n">
-        <v>8.764918182755599</v>
+        <v>74.88717299703725</v>
       </c>
       <c r="M13" t="n">
-        <v>8.764918182755599</v>
+        <v>181.313420898871</v>
       </c>
       <c r="N13" t="n">
-        <v>117.2307806943561</v>
+        <v>181.313420898871</v>
       </c>
       <c r="O13" t="n">
-        <v>185.3627928296816</v>
+        <v>284.6027507747103</v>
       </c>
       <c r="P13" t="n">
-        <v>284.6027507747089</v>
+        <v>284.6027507747103</v>
       </c>
       <c r="Q13" t="n">
-        <v>284.6027507747089</v>
+        <v>284.6027507747103</v>
       </c>
       <c r="R13" t="n">
-        <v>284.6027507747089</v>
+        <v>284.6027507747103</v>
       </c>
       <c r="S13" t="n">
-        <v>272.289151343226</v>
+        <v>272.2891513432272</v>
       </c>
       <c r="T13" t="n">
-        <v>250.8132990485914</v>
+        <v>250.8132990485924</v>
       </c>
       <c r="U13" t="n">
-        <v>170.0319508471233</v>
+        <v>170.0319508471241</v>
       </c>
       <c r="V13" t="n">
-        <v>122.6880607332221</v>
+        <v>122.6880607332228</v>
       </c>
       <c r="W13" t="n">
-        <v>41.85303342692063</v>
+        <v>41.85303342692104</v>
       </c>
       <c r="X13" t="n">
-        <v>21.57580102476688</v>
+        <v>21.5758010247671</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>216.9095913914264</v>
+        <v>171.0814149424771</v>
       </c>
       <c r="C14" t="n">
-        <v>216.9095913914264</v>
+        <v>171.0814149424771</v>
       </c>
       <c r="D14" t="n">
-        <v>216.9095913914264</v>
+        <v>60.41325606930025</v>
       </c>
       <c r="E14" t="n">
-        <v>216.9095913914264</v>
+        <v>60.41325606930025</v>
       </c>
       <c r="F14" t="n">
-        <v>119.4330770559323</v>
+        <v>60.41325606930025</v>
       </c>
       <c r="G14" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="H14" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="I14" t="n">
-        <v>29.62098450621262</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="J14" t="n">
-        <v>134.0439678759016</v>
+        <v>82.09621137865764</v>
       </c>
       <c r="K14" t="n">
-        <v>242.5098303875021</v>
+        <v>139.7251337086381</v>
       </c>
       <c r="L14" t="n">
-        <v>242.5098303875021</v>
+        <v>248.1909962202388</v>
       </c>
       <c r="M14" t="n">
-        <v>350.9756928991026</v>
+        <v>262.2528429234949</v>
       </c>
       <c r="N14" t="n">
-        <v>426.211898528461</v>
+        <v>262.2528429234949</v>
       </c>
       <c r="O14" t="n">
-        <v>426.211898528461</v>
+        <v>370.7187054350957</v>
       </c>
       <c r="P14" t="n">
-        <v>426.211898528461</v>
+        <v>426.2118985284621</v>
       </c>
       <c r="Q14" t="n">
-        <v>426.211898528461</v>
+        <v>426.2118985284621</v>
       </c>
       <c r="R14" t="n">
-        <v>426.211898528461</v>
+        <v>426.2118985284621</v>
       </c>
       <c r="S14" t="n">
-        <v>438.2459091377799</v>
+        <v>438.2459091377808</v>
       </c>
       <c r="T14" t="n">
-        <v>438.2459091377799</v>
+        <v>438.2459091377808</v>
       </c>
       <c r="U14" t="n">
-        <v>438.2459091377799</v>
+        <v>392.4177326888311</v>
       </c>
       <c r="V14" t="n">
-        <v>327.5777502646031</v>
+        <v>281.7495738156541</v>
       </c>
       <c r="W14" t="n">
-        <v>327.5777502646031</v>
+        <v>281.7495738156541</v>
       </c>
       <c r="X14" t="n">
-        <v>327.5777502646031</v>
+        <v>171.0814149424771</v>
       </c>
       <c r="Y14" t="n">
-        <v>216.9095913914264</v>
+        <v>171.0814149424771</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="C15" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="D15" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="E15" t="n">
-        <v>8.764918182755599</v>
+        <v>58.29705966828869</v>
       </c>
       <c r="F15" t="n">
-        <v>8.764918182755599</v>
+        <v>97.99632087991463</v>
       </c>
       <c r="G15" t="n">
-        <v>8.764918182755599</v>
+        <v>97.99632087991463</v>
       </c>
       <c r="H15" t="n">
-        <v>8.764918182755599</v>
+        <v>97.99632087991463</v>
       </c>
       <c r="I15" t="n">
-        <v>8.764918182755599</v>
+        <v>97.99632087991463</v>
       </c>
       <c r="J15" t="n">
-        <v>8.764918182755599</v>
+        <v>97.99632087991463</v>
       </c>
       <c r="K15" t="n">
-        <v>8.764918182755599</v>
+        <v>97.99632087991463</v>
       </c>
       <c r="L15" t="n">
-        <v>8.764918182755599</v>
+        <v>97.99632087991463</v>
       </c>
       <c r="M15" t="n">
-        <v>8.764918182755599</v>
+        <v>97.99632087991463</v>
       </c>
       <c r="N15" t="n">
-        <v>8.764918182755599</v>
+        <v>97.99632087991463</v>
       </c>
       <c r="O15" t="n">
-        <v>8.764918182755599</v>
+        <v>97.99632087991463</v>
       </c>
       <c r="P15" t="n">
-        <v>8.764918182755599</v>
+        <v>97.99632087991463</v>
       </c>
       <c r="Q15" t="n">
-        <v>8.764918182755599</v>
+        <v>97.99632087991463</v>
       </c>
       <c r="R15" t="n">
-        <v>56.10147167801171</v>
+        <v>97.99632087991463</v>
       </c>
       <c r="S15" t="n">
-        <v>97.99632087991411</v>
+        <v>97.99632087991463</v>
       </c>
       <c r="T15" t="n">
-        <v>97.99632087991411</v>
+        <v>97.99632087991463</v>
       </c>
       <c r="U15" t="n">
-        <v>79.23590614366566</v>
+        <v>79.23590614366601</v>
       </c>
       <c r="V15" t="n">
-        <v>53.13203625934442</v>
+        <v>53.13203625934461</v>
       </c>
       <c r="W15" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="X15" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="C16" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="D16" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="E16" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="F16" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="G16" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="H16" t="n">
-        <v>8.764918182755599</v>
+        <v>54.8237436088445</v>
       </c>
       <c r="I16" t="n">
-        <v>67.55524358064108</v>
+        <v>76.9186876331552</v>
       </c>
       <c r="J16" t="n">
-        <v>67.55524358064108</v>
+        <v>76.9186876331552</v>
       </c>
       <c r="K16" t="n">
-        <v>67.55524358064108</v>
+        <v>76.9186876331552</v>
       </c>
       <c r="L16" t="n">
-        <v>67.55524358064108</v>
+        <v>185.3627928296826</v>
       </c>
       <c r="M16" t="n">
-        <v>133.3137013510625</v>
+        <v>185.3627928296826</v>
       </c>
       <c r="N16" t="n">
-        <v>133.3137013510625</v>
+        <v>185.3627928296826</v>
       </c>
       <c r="O16" t="n">
-        <v>133.3137013510625</v>
+        <v>185.3627928296826</v>
       </c>
       <c r="P16" t="n">
-        <v>241.779563862663</v>
+        <v>284.6027507747097</v>
       </c>
       <c r="Q16" t="n">
-        <v>241.779563862663</v>
+        <v>284.6027507747097</v>
       </c>
       <c r="R16" t="n">
-        <v>284.6027507747084</v>
+        <v>284.6027507747097</v>
       </c>
       <c r="S16" t="n">
-        <v>272.2891513432256</v>
+        <v>272.2891513432267</v>
       </c>
       <c r="T16" t="n">
-        <v>250.8132990485911</v>
+        <v>250.813299048592</v>
       </c>
       <c r="U16" t="n">
-        <v>170.031950847123</v>
+        <v>170.0319508471237</v>
       </c>
       <c r="V16" t="n">
-        <v>122.688060733222</v>
+        <v>122.6880607332225</v>
       </c>
       <c r="W16" t="n">
-        <v>41.85303342692051</v>
+        <v>41.85303342692087</v>
       </c>
       <c r="X16" t="n">
-        <v>21.57580102476683</v>
+        <v>21.57580102476702</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>275.9122174255201</v>
+        <v>275.9122174255207</v>
       </c>
       <c r="C17" t="n">
-        <v>241.3527377193199</v>
+        <v>241.3527377193204</v>
       </c>
       <c r="D17" t="n">
-        <v>217.2784730882148</v>
+        <v>217.2784730882153</v>
       </c>
       <c r="E17" t="n">
-        <v>166.4230943149995</v>
+        <v>166.423094315</v>
       </c>
       <c r="F17" t="n">
-        <v>91.14768753647839</v>
+        <v>91.14768753647826</v>
       </c>
       <c r="G17" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="H17" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="I17" t="n">
-        <v>8.764918182755597</v>
+        <v>117.2307806943564</v>
       </c>
       <c r="J17" t="n">
-        <v>8.764918182755597</v>
+        <v>117.2307806943564</v>
       </c>
       <c r="K17" t="n">
-        <v>8.764918182755597</v>
+        <v>225.6966432059571</v>
       </c>
       <c r="L17" t="n">
-        <v>8.764918182755597</v>
+        <v>225.6966432059571</v>
       </c>
       <c r="M17" t="n">
-        <v>8.764918182755597</v>
+        <v>225.6966432059571</v>
       </c>
       <c r="N17" t="n">
-        <v>8.764918182755597</v>
+        <v>329.7800466261801</v>
       </c>
       <c r="O17" t="n">
-        <v>8.764918182755597</v>
+        <v>329.7800466261801</v>
       </c>
       <c r="P17" t="n">
-        <v>117.2307806943561</v>
+        <v>438.2459091377808</v>
       </c>
       <c r="Q17" t="n">
-        <v>117.2307806943561</v>
+        <v>438.2459091377808</v>
       </c>
       <c r="R17" t="n">
-        <v>225.6966432059566</v>
+        <v>438.2459091377808</v>
       </c>
       <c r="S17" t="n">
-        <v>334.1625057175571</v>
+        <v>438.2459091377808</v>
       </c>
       <c r="T17" t="n">
-        <v>353.5282377141121</v>
+        <v>438.2459091377808</v>
       </c>
       <c r="U17" t="n">
-        <v>434.0502997829677</v>
+        <v>438.2459091377808</v>
       </c>
       <c r="V17" t="n">
-        <v>438.2459091377798</v>
+        <v>438.2459091377808</v>
       </c>
       <c r="W17" t="n">
-        <v>420.30762001581</v>
+        <v>420.3076200158109</v>
       </c>
       <c r="X17" t="n">
-        <v>381.8324802568554</v>
+        <v>381.8324802568563</v>
       </c>
       <c r="Y17" t="n">
-        <v>327.3720146190459</v>
+        <v>327.3720146190467</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="C18" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="D18" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="E18" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="F18" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="G18" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="H18" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="I18" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="J18" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="K18" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="L18" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="M18" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="N18" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="O18" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="P18" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="R18" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="S18" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="T18" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="U18" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="V18" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="W18" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="X18" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="C19" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="D19" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="E19" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="F19" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="G19" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="H19" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="I19" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="J19" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="K19" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="L19" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="M19" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="N19" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="O19" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="P19" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="R19" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="S19" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="T19" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="U19" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="V19" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="W19" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="X19" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.764918182755597</v>
+        <v>8.764918182755617</v>
       </c>
     </row>
     <row r="20">
@@ -5726,73 +5726,73 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>275.912217425521</v>
+        <v>275.9122174255209</v>
       </c>
       <c r="C20" t="n">
-        <v>241.3527377193206</v>
+        <v>241.3527377193205</v>
       </c>
       <c r="D20" t="n">
-        <v>217.2784730882155</v>
+        <v>217.2784730882154</v>
       </c>
       <c r="E20" t="n">
-        <v>166.4230943150003</v>
+        <v>166.4230943150001</v>
       </c>
       <c r="F20" t="n">
-        <v>91.14768753647839</v>
+        <v>91.14768753647837</v>
       </c>
       <c r="G20" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="H20" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="I20" t="n">
-        <v>117.2307806943561</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="J20" t="n">
-        <v>225.6966432059566</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="K20" t="n">
-        <v>334.1625057175572</v>
+        <v>117.2307806943564</v>
       </c>
       <c r="L20" t="n">
-        <v>434.0502997829677</v>
+        <v>117.2307806943564</v>
       </c>
       <c r="M20" t="n">
-        <v>434.0502997829677</v>
+        <v>117.2307806943564</v>
       </c>
       <c r="N20" t="n">
-        <v>434.0502997829677</v>
+        <v>117.2307806943564</v>
       </c>
       <c r="O20" t="n">
-        <v>434.0502997829677</v>
+        <v>117.2307806943564</v>
       </c>
       <c r="P20" t="n">
-        <v>434.0502997829677</v>
+        <v>117.2307806943564</v>
       </c>
       <c r="Q20" t="n">
-        <v>434.0502997829677</v>
+        <v>117.2307806943564</v>
       </c>
       <c r="R20" t="n">
-        <v>434.0502997829677</v>
+        <v>225.6966432059571</v>
       </c>
       <c r="S20" t="n">
-        <v>434.0502997829677</v>
+        <v>245.0623752025124</v>
       </c>
       <c r="T20" t="n">
-        <v>434.0502997829677</v>
+        <v>353.5282377141132</v>
       </c>
       <c r="U20" t="n">
-        <v>434.0502997829677</v>
+        <v>434.0502997829687</v>
       </c>
       <c r="V20" t="n">
-        <v>438.2459091377799</v>
+        <v>438.2459091377808</v>
       </c>
       <c r="W20" t="n">
-        <v>420.3076200158109</v>
+        <v>420.307620015811</v>
       </c>
       <c r="X20" t="n">
-        <v>381.8324802568564</v>
+        <v>381.8324802568565</v>
       </c>
       <c r="Y20" t="n">
         <v>327.3720146190469</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="C21" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="D21" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="E21" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="F21" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="G21" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="H21" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="I21" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="J21" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="K21" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="L21" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="M21" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="N21" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="O21" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="P21" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="R21" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="S21" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="T21" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="U21" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="V21" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="W21" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="X21" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="C22" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="D22" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="E22" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="F22" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="G22" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="H22" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="I22" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="J22" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="K22" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="L22" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="M22" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="N22" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="O22" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="P22" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="R22" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="S22" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="T22" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="U22" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="V22" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="W22" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="X22" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755617</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>275.9122174255201</v>
+        <v>275.9122174255208</v>
       </c>
       <c r="C23" t="n">
-        <v>241.3527377193198</v>
+        <v>241.3527377193205</v>
       </c>
       <c r="D23" t="n">
-        <v>217.2784730882148</v>
+        <v>217.2784730882155</v>
       </c>
       <c r="E23" t="n">
-        <v>166.4230943149995</v>
+        <v>166.4230943150002</v>
       </c>
       <c r="F23" t="n">
-        <v>91.1476875364778</v>
+        <v>91.1476875364784</v>
       </c>
       <c r="G23" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="H23" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="I23" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="J23" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="K23" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="L23" t="n">
-        <v>117.2307806943561</v>
+        <v>117.2307806943563</v>
       </c>
       <c r="M23" t="n">
-        <v>117.2307806943561</v>
+        <v>117.2307806943563</v>
       </c>
       <c r="N23" t="n">
-        <v>117.2307806943561</v>
+        <v>117.2307806943563</v>
       </c>
       <c r="O23" t="n">
-        <v>117.2307806943561</v>
+        <v>117.2307806943563</v>
       </c>
       <c r="P23" t="n">
-        <v>117.2307806943561</v>
+        <v>221.3141841145792</v>
       </c>
       <c r="Q23" t="n">
-        <v>117.2307806943561</v>
+        <v>221.3141841145792</v>
       </c>
       <c r="R23" t="n">
-        <v>136.5965126909111</v>
+        <v>221.3141841145792</v>
       </c>
       <c r="S23" t="n">
-        <v>245.0623752025116</v>
+        <v>329.7800466261799</v>
       </c>
       <c r="T23" t="n">
-        <v>353.5282377141122</v>
+        <v>438.2459091377805</v>
       </c>
       <c r="U23" t="n">
-        <v>434.0502997829677</v>
+        <v>438.2459091377805</v>
       </c>
       <c r="V23" t="n">
-        <v>438.2459091377799</v>
+        <v>438.2459091377805</v>
       </c>
       <c r="W23" t="n">
-        <v>420.30762001581</v>
+        <v>420.3076200158106</v>
       </c>
       <c r="X23" t="n">
-        <v>381.8324802568555</v>
+        <v>381.8324802568561</v>
       </c>
       <c r="Y23" t="n">
-        <v>327.372014619046</v>
+        <v>327.3720146190466</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="C24" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="D24" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="E24" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="F24" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="G24" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="H24" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="I24" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="J24" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="K24" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="L24" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="M24" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="N24" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="O24" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="P24" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="R24" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="S24" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="T24" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="U24" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="V24" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="W24" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="X24" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="C25" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="D25" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="E25" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="F25" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="G25" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="H25" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="I25" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="J25" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="K25" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="L25" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="M25" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="N25" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="O25" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="P25" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="R25" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="S25" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="T25" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="U25" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="V25" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="W25" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="X25" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.764918182755599</v>
+        <v>8.764918182755611</v>
       </c>
     </row>
     <row r="26">
@@ -6203,73 +6203,73 @@
         <v>1355.01985813494</v>
       </c>
       <c r="C26" t="n">
-        <v>1150.96472144231</v>
+        <v>1150.964721442309</v>
       </c>
       <c r="D26" t="n">
-        <v>957.3947998247744</v>
+        <v>957.3947998247736</v>
       </c>
       <c r="E26" t="n">
-        <v>737.0437640651288</v>
+        <v>737.043764065128</v>
       </c>
       <c r="F26" t="n">
-        <v>492.2727003001767</v>
+        <v>492.2727003001759</v>
       </c>
       <c r="G26" t="n">
-        <v>240.3942739600227</v>
+        <v>240.3942739600228</v>
       </c>
       <c r="H26" t="n">
         <v>70.89861697359237</v>
       </c>
       <c r="I26" t="n">
-        <v>50.66765147775282</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="J26" t="n">
         <v>257.4163840488928</v>
       </c>
       <c r="K26" t="n">
-        <v>608.1009875562153</v>
+        <v>444.7801823065093</v>
       </c>
       <c r="L26" t="n">
-        <v>1055.832230508002</v>
+        <v>729.1906200085897</v>
       </c>
       <c r="M26" t="n">
-        <v>1550.826741583829</v>
+        <v>1224.185131084417</v>
       </c>
       <c r="N26" t="n">
-        <v>1872.350099732131</v>
+        <v>1650.834130994609</v>
       </c>
       <c r="O26" t="n">
-        <v>2129.827138139758</v>
+        <v>2071.631974651942</v>
       </c>
       <c r="P26" t="n">
-        <v>2475.959845560554</v>
+        <v>2417.764682072737</v>
       </c>
       <c r="Q26" t="n">
         <v>2477.869405590945</v>
       </c>
       <c r="R26" t="n">
-        <v>2533.382573887641</v>
+        <v>2533.38257388764</v>
       </c>
       <c r="S26" t="n">
         <v>2504.150429211985</v>
       </c>
       <c r="T26" t="n">
-        <v>2447.889708454214</v>
+        <v>2447.889708454215</v>
       </c>
       <c r="U26" t="n">
-        <v>2360.551037559872</v>
+        <v>2360.551037559871</v>
       </c>
       <c r="V26" t="n">
-        <v>2195.336177792922</v>
+        <v>2195.33617779292</v>
       </c>
       <c r="W26" t="n">
-        <v>2007.902231684521</v>
+        <v>2007.90223168452</v>
       </c>
       <c r="X26" t="n">
-        <v>1799.931434939137</v>
+        <v>1799.931434939135</v>
       </c>
       <c r="Y26" t="n">
-        <v>1575.975312314897</v>
+        <v>1575.975312314896</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>56.78388741125043</v>
+        <v>56.78388741125042</v>
       </c>
       <c r="C27" t="n">
-        <v>50.66765147775282</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="D27" t="n">
-        <v>69.33715738855969</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="E27" t="n">
-        <v>69.33715738855969</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="F27" t="n">
-        <v>90.58679287555185</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="G27" t="n">
-        <v>119.5225057822968</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="H27" t="n">
-        <v>176.1692120843373</v>
+        <v>107.3143577797933</v>
       </c>
       <c r="I27" t="n">
-        <v>263.4190672692032</v>
+        <v>107.3143577797933</v>
       </c>
       <c r="J27" t="n">
-        <v>297.0664884526444</v>
+        <v>107.3143577797933</v>
       </c>
       <c r="K27" t="n">
-        <v>297.0664884526444</v>
+        <v>291.4287730969721</v>
       </c>
       <c r="L27" t="n">
-        <v>297.0664884526444</v>
+        <v>381.3303079568902</v>
       </c>
       <c r="M27" t="n">
-        <v>297.0664884526444</v>
+        <v>381.3303079568902</v>
       </c>
       <c r="N27" t="n">
-        <v>297.0664884526444</v>
+        <v>381.3303079568902</v>
       </c>
       <c r="O27" t="n">
-        <v>297.0664884526444</v>
+        <v>381.3303079568902</v>
       </c>
       <c r="P27" t="n">
-        <v>297.0664884526444</v>
+        <v>381.3303079568902</v>
       </c>
       <c r="Q27" t="n">
-        <v>297.0664884526444</v>
+        <v>381.3303079568902</v>
       </c>
       <c r="R27" t="n">
-        <v>382.5407215528633</v>
+        <v>381.3303079568902</v>
       </c>
       <c r="S27" t="n">
         <v>382.5407215528633</v>
       </c>
       <c r="T27" t="n">
-        <v>349.9340215028638</v>
+        <v>349.9340215028637</v>
       </c>
       <c r="U27" t="n">
-        <v>289.6631123212227</v>
+        <v>289.6631123212226</v>
       </c>
       <c r="V27" t="n">
-        <v>222.0487479915088</v>
+        <v>222.0487479915087</v>
       </c>
       <c r="W27" t="n">
-        <v>136.1711354695273</v>
+        <v>136.1711354695272</v>
       </c>
       <c r="X27" t="n">
-        <v>96.28111601978998</v>
+        <v>96.28111601978995</v>
       </c>
       <c r="Y27" t="n">
-        <v>57.18955938812566</v>
+        <v>57.18955938812564</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>55.76845737190965</v>
+        <v>53.05759347569622</v>
       </c>
       <c r="C28" t="n">
-        <v>53.37851537396624</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="D28" t="n">
-        <v>53.37851537396624</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="E28" t="n">
-        <v>53.37851537396624</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="F28" t="n">
-        <v>53.37851537396624</v>
+        <v>53.37851537396622</v>
       </c>
       <c r="G28" t="n">
-        <v>50.66765147775282</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="H28" t="n">
-        <v>50.66765147775282</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="I28" t="n">
-        <v>50.66765147775282</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="J28" t="n">
-        <v>50.66765147775282</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="K28" t="n">
-        <v>63.107874079609</v>
+        <v>63.10787407960898</v>
       </c>
       <c r="L28" t="n">
-        <v>134.8306911276856</v>
+        <v>298.1514963773916</v>
       </c>
       <c r="M28" t="n">
-        <v>221.0452450462496</v>
+        <v>298.1514963773916</v>
       </c>
       <c r="N28" t="n">
-        <v>432.1905469806749</v>
+        <v>550.7781280473216</v>
       </c>
       <c r="O28" t="n">
-        <v>499.3423356911917</v>
+        <v>617.9299167578383</v>
       </c>
       <c r="P28" t="n">
-        <v>533.5798103687204</v>
+        <v>617.9299167578383</v>
       </c>
       <c r="Q28" t="n">
-        <v>637.4455906143844</v>
+        <v>632.5959754120548</v>
       </c>
       <c r="R28" t="n">
-        <v>637.4455906143844</v>
+        <v>634.7347267181709</v>
       </c>
       <c r="S28" t="n">
-        <v>583.6214967375089</v>
+        <v>580.9106328412954</v>
       </c>
       <c r="T28" t="n">
-        <v>520.6351499974817</v>
+        <v>517.9242861012682</v>
       </c>
       <c r="U28" t="n">
-        <v>398.343307350621</v>
+        <v>395.6324434544075</v>
       </c>
       <c r="V28" t="n">
-        <v>309.4889227913272</v>
+        <v>306.7780588951138</v>
       </c>
       <c r="W28" t="n">
-        <v>187.1434010396331</v>
+        <v>184.4325371434197</v>
       </c>
       <c r="X28" t="n">
-        <v>125.3556741920867</v>
+        <v>122.6448102958733</v>
       </c>
       <c r="Y28" t="n">
-        <v>71.03429690468283</v>
+        <v>68.32343300846941</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1355.01985813494</v>
+        <v>1355.019858134939</v>
       </c>
       <c r="C29" t="n">
-        <v>1150.964721442309</v>
+        <v>1150.964721442308</v>
       </c>
       <c r="D29" t="n">
-        <v>957.3947998247741</v>
+        <v>957.3947998247726</v>
       </c>
       <c r="E29" t="n">
-        <v>737.0437640651285</v>
+        <v>737.0437640651269</v>
       </c>
       <c r="F29" t="n">
-        <v>492.2727003001764</v>
+        <v>492.2727003001748</v>
       </c>
       <c r="G29" t="n">
-        <v>240.3942739600232</v>
+        <v>240.3942739600216</v>
       </c>
       <c r="H29" t="n">
-        <v>70.89861697359237</v>
+        <v>70.89861697359245</v>
       </c>
       <c r="I29" t="n">
-        <v>50.66765147775282</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="J29" t="n">
-        <v>214.3018032258813</v>
+        <v>257.4163840488927</v>
       </c>
       <c r="K29" t="n">
-        <v>442.098187115389</v>
+        <v>444.7801823065092</v>
       </c>
       <c r="L29" t="n">
-        <v>889.8294300671754</v>
+        <v>714.9071817010265</v>
       </c>
       <c r="M29" t="n">
-        <v>1384.823941143003</v>
+        <v>1209.901692776854</v>
       </c>
       <c r="N29" t="n">
-        <v>1869.668104541011</v>
+        <v>1694.745856174862</v>
       </c>
       <c r="O29" t="n">
-        <v>2127.145142948637</v>
+        <v>2115.543699832194</v>
       </c>
       <c r="P29" t="n">
-        <v>2309.957045119727</v>
+        <v>2298.355602003284</v>
       </c>
       <c r="Q29" t="n">
-        <v>2533.382573887641</v>
+        <v>2477.869405590945</v>
       </c>
       <c r="R29" t="n">
-        <v>2533.382573887641</v>
+        <v>2533.38257388764</v>
       </c>
       <c r="S29" t="n">
-        <v>2504.150429211985</v>
+        <v>2504.150429211984</v>
       </c>
       <c r="T29" t="n">
-        <v>2447.889708454214</v>
+        <v>2447.889708454213</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.551037559872</v>
+        <v>2360.551037559871</v>
       </c>
       <c r="V29" t="n">
-        <v>2195.336177792921</v>
+        <v>2195.33617779292</v>
       </c>
       <c r="W29" t="n">
-        <v>2007.902231684521</v>
+        <v>2007.90223168452</v>
       </c>
       <c r="X29" t="n">
-        <v>1799.931434939136</v>
+        <v>1799.931434939135</v>
       </c>
       <c r="Y29" t="n">
-        <v>1575.975312314896</v>
+        <v>1575.975312314895</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>56.78388741125043</v>
+        <v>56.7838874112505</v>
       </c>
       <c r="C30" t="n">
-        <v>50.66765147775282</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="D30" t="n">
-        <v>50.66765147775282</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="E30" t="n">
-        <v>50.66765147775282</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="F30" t="n">
-        <v>50.66765147775282</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="G30" t="n">
-        <v>50.66765147775282</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="H30" t="n">
-        <v>50.66765147775282</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="I30" t="n">
-        <v>50.66765147775282</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="J30" t="n">
-        <v>198.4263062356845</v>
+        <v>84.31507266119399</v>
       </c>
       <c r="K30" t="n">
-        <v>382.5407215528633</v>
+        <v>102.5698747783518</v>
       </c>
       <c r="L30" t="n">
-        <v>382.5407215528633</v>
+        <v>102.5698747783518</v>
       </c>
       <c r="M30" t="n">
-        <v>382.5407215528633</v>
+        <v>102.5698747783518</v>
       </c>
       <c r="N30" t="n">
-        <v>382.5407215528633</v>
+        <v>102.5698747783518</v>
       </c>
       <c r="O30" t="n">
-        <v>382.5407215528633</v>
+        <v>102.5698747783518</v>
       </c>
       <c r="P30" t="n">
-        <v>382.5407215528633</v>
+        <v>102.5698747783518</v>
       </c>
       <c r="Q30" t="n">
-        <v>382.5407215528633</v>
+        <v>382.5407215528639</v>
       </c>
       <c r="R30" t="n">
-        <v>382.5407215528633</v>
+        <v>382.5407215528639</v>
       </c>
       <c r="S30" t="n">
-        <v>382.5407215528633</v>
+        <v>382.5407215528639</v>
       </c>
       <c r="T30" t="n">
-        <v>349.9340215028638</v>
+        <v>349.9340215028644</v>
       </c>
       <c r="U30" t="n">
-        <v>289.6631123212227</v>
+        <v>289.6631123212231</v>
       </c>
       <c r="V30" t="n">
-        <v>222.0487479915088</v>
+        <v>222.0487479915092</v>
       </c>
       <c r="W30" t="n">
-        <v>136.1711354695273</v>
+        <v>136.1711354695276</v>
       </c>
       <c r="X30" t="n">
-        <v>96.28111601978998</v>
+        <v>96.2811160197902</v>
       </c>
       <c r="Y30" t="n">
-        <v>57.18955938812566</v>
+        <v>57.18955938812582</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.05759347569624</v>
+        <v>53.05759347569631</v>
       </c>
       <c r="C31" t="n">
-        <v>50.66765147775282</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="D31" t="n">
-        <v>50.66765147775282</v>
+        <v>53.37851537396631</v>
       </c>
       <c r="E31" t="n">
-        <v>50.66765147775282</v>
+        <v>53.37851537396631</v>
       </c>
       <c r="F31" t="n">
-        <v>69.29102553175234</v>
+        <v>53.37851537396631</v>
       </c>
       <c r="G31" t="n">
-        <v>66.58016163553893</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="H31" t="n">
-        <v>66.58016163553893</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="I31" t="n">
-        <v>84.68605142749504</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="J31" t="n">
-        <v>176.5273853087523</v>
+        <v>107.877111293134</v>
       </c>
       <c r="K31" t="n">
-        <v>321.1110914561904</v>
+        <v>107.877111293134</v>
       </c>
       <c r="L31" t="n">
-        <v>321.1110914561904</v>
+        <v>107.877111293134</v>
       </c>
       <c r="M31" t="n">
-        <v>407.3256453747543</v>
+        <v>357.4124704614038</v>
       </c>
       <c r="N31" t="n">
-        <v>496.6314717949783</v>
+        <v>357.4124704614038</v>
       </c>
       <c r="O31" t="n">
-        <v>496.6314717949783</v>
+        <v>587.8850644216265</v>
       </c>
       <c r="P31" t="n">
-        <v>530.868946472507</v>
+        <v>587.8850644216265</v>
       </c>
       <c r="Q31" t="n">
-        <v>634.734726718171</v>
+        <v>634.7347267181717</v>
       </c>
       <c r="R31" t="n">
-        <v>634.734726718171</v>
+        <v>634.7347267181717</v>
       </c>
       <c r="S31" t="n">
-        <v>580.9106328412955</v>
+        <v>580.9106328412962</v>
       </c>
       <c r="T31" t="n">
-        <v>517.9242861012683</v>
+        <v>517.9242861012689</v>
       </c>
       <c r="U31" t="n">
-        <v>395.6324434544076</v>
+        <v>395.6324434544081</v>
       </c>
       <c r="V31" t="n">
-        <v>306.7780588951138</v>
+        <v>306.7780588951142</v>
       </c>
       <c r="W31" t="n">
-        <v>184.4325371434197</v>
+        <v>184.43253714342</v>
       </c>
       <c r="X31" t="n">
-        <v>122.6448102958733</v>
+        <v>122.6448102958736</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.32343300846942</v>
+        <v>68.32343300846958</v>
       </c>
     </row>
     <row r="32">
@@ -6680,58 +6680,58 @@
         <v>1150.964721442309</v>
       </c>
       <c r="D32" t="n">
-        <v>957.3947998247736</v>
+        <v>957.3947998247741</v>
       </c>
       <c r="E32" t="n">
-        <v>737.0437640651282</v>
+        <v>737.0437640651285</v>
       </c>
       <c r="F32" t="n">
-        <v>492.2727003001759</v>
+        <v>492.2727003001764</v>
       </c>
       <c r="G32" t="n">
-        <v>240.3942739600227</v>
+        <v>240.3942739600226</v>
       </c>
       <c r="H32" t="n">
-        <v>70.89861697359245</v>
+        <v>70.8986169735924</v>
       </c>
       <c r="I32" t="n">
-        <v>50.66765147775282</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="J32" t="n">
-        <v>91.41358360806731</v>
+        <v>94.09557879918681</v>
       </c>
       <c r="K32" t="n">
-        <v>442.0981871153897</v>
+        <v>281.4593770568033</v>
       </c>
       <c r="L32" t="n">
-        <v>889.829430067176</v>
+        <v>729.1906200085897</v>
       </c>
       <c r="M32" t="n">
-        <v>1384.823941143003</v>
+        <v>1224.185131084417</v>
       </c>
       <c r="N32" t="n">
-        <v>1869.668104541011</v>
+        <v>1709.029294482425</v>
       </c>
       <c r="O32" t="n">
-        <v>2127.145142948638</v>
+        <v>2129.827138139758</v>
       </c>
       <c r="P32" t="n">
-        <v>2309.957045119728</v>
+        <v>2417.764682072737</v>
       </c>
       <c r="Q32" t="n">
-        <v>2533.382573887641</v>
+        <v>2477.869405590945</v>
       </c>
       <c r="R32" t="n">
-        <v>2533.382573887641</v>
+        <v>2533.38257388764</v>
       </c>
       <c r="S32" t="n">
-        <v>2504.150429211984</v>
+        <v>2504.150429211985</v>
       </c>
       <c r="T32" t="n">
         <v>2447.889708454214</v>
       </c>
       <c r="U32" t="n">
-        <v>2360.551037559872</v>
+        <v>2360.551037559871</v>
       </c>
       <c r="V32" t="n">
         <v>2195.336177792921</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>56.78388741125052</v>
+        <v>56.78388741125045</v>
       </c>
       <c r="C33" t="n">
-        <v>50.66765147775282</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="D33" t="n">
-        <v>50.66765147775282</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="E33" t="n">
-        <v>50.66765147775282</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="F33" t="n">
-        <v>50.66765147775282</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="G33" t="n">
-        <v>50.66765147775282</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="H33" t="n">
-        <v>50.66765147775282</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="I33" t="n">
-        <v>50.66765147775282</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="J33" t="n">
-        <v>50.66765147775282</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="K33" t="n">
-        <v>50.66765147775282</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="L33" t="n">
-        <v>50.66765147775282</v>
+        <v>196.0013339770018</v>
       </c>
       <c r="M33" t="n">
-        <v>50.66765147775282</v>
+        <v>196.0013339770018</v>
       </c>
       <c r="N33" t="n">
-        <v>50.66765147775282</v>
+        <v>196.0013339770018</v>
       </c>
       <c r="O33" t="n">
-        <v>382.5407215528639</v>
+        <v>265.8906800280573</v>
       </c>
       <c r="P33" t="n">
-        <v>382.5407215528639</v>
+        <v>265.8906800280573</v>
       </c>
       <c r="Q33" t="n">
-        <v>382.5407215528639</v>
+        <v>382.5407215528635</v>
       </c>
       <c r="R33" t="n">
-        <v>382.5407215528639</v>
+        <v>382.5407215528635</v>
       </c>
       <c r="S33" t="n">
-        <v>382.5407215528639</v>
+        <v>382.5407215528635</v>
       </c>
       <c r="T33" t="n">
-        <v>349.9340215028644</v>
+        <v>349.934021502864</v>
       </c>
       <c r="U33" t="n">
-        <v>289.6631123212231</v>
+        <v>289.6631123212228</v>
       </c>
       <c r="V33" t="n">
-        <v>222.0487479915092</v>
+        <v>222.0487479915089</v>
       </c>
       <c r="W33" t="n">
-        <v>136.1711354695276</v>
+        <v>136.1711354695273</v>
       </c>
       <c r="X33" t="n">
-        <v>96.28111601979023</v>
+        <v>96.28111601979003</v>
       </c>
       <c r="Y33" t="n">
-        <v>57.18955938812583</v>
+        <v>57.1895593881257</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>55.76845737190983</v>
+        <v>53.05759347569625</v>
       </c>
       <c r="C34" t="n">
-        <v>53.37851537396632</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="D34" t="n">
-        <v>53.37851537396632</v>
+        <v>66.47294587808459</v>
       </c>
       <c r="E34" t="n">
-        <v>53.37851537396632</v>
+        <v>66.47294587808459</v>
       </c>
       <c r="F34" t="n">
-        <v>53.37851537396632</v>
+        <v>66.47294587808459</v>
       </c>
       <c r="G34" t="n">
-        <v>50.66765147775282</v>
+        <v>63.76208198187114</v>
       </c>
       <c r="H34" t="n">
-        <v>50.66765147775282</v>
+        <v>63.76208198187114</v>
       </c>
       <c r="I34" t="n">
-        <v>50.66765147775282</v>
+        <v>63.76208198187114</v>
       </c>
       <c r="J34" t="n">
-        <v>50.66765147775282</v>
+        <v>63.76208198187114</v>
       </c>
       <c r="K34" t="n">
-        <v>50.66765147775282</v>
+        <v>239.5231098334333</v>
       </c>
       <c r="L34" t="n">
-        <v>50.66765147775282</v>
+        <v>279.9900567686921</v>
       </c>
       <c r="M34" t="n">
-        <v>300.2030106460226</v>
+        <v>345.7318690645967</v>
       </c>
       <c r="N34" t="n">
-        <v>424.460354493443</v>
+        <v>435.0376954848207</v>
       </c>
       <c r="O34" t="n">
-        <v>424.460354493443</v>
+        <v>435.0376954848207</v>
       </c>
       <c r="P34" t="n">
-        <v>600.8569203144542</v>
+        <v>632.5959754120553</v>
       </c>
       <c r="Q34" t="n">
-        <v>637.4455906143853</v>
+        <v>632.5959754120553</v>
       </c>
       <c r="R34" t="n">
-        <v>637.4455906143853</v>
+        <v>634.7347267181713</v>
       </c>
       <c r="S34" t="n">
-        <v>583.6214967375097</v>
+        <v>580.9106328412958</v>
       </c>
       <c r="T34" t="n">
-        <v>520.6351499974824</v>
+        <v>517.9242861012685</v>
       </c>
       <c r="U34" t="n">
-        <v>398.3433073506216</v>
+        <v>395.6324434544077</v>
       </c>
       <c r="V34" t="n">
-        <v>309.4889227913278</v>
+        <v>306.7780588951139</v>
       </c>
       <c r="W34" t="n">
-        <v>187.1434010396335</v>
+        <v>184.4325371434198</v>
       </c>
       <c r="X34" t="n">
-        <v>125.3556741920871</v>
+        <v>122.6448102958734</v>
       </c>
       <c r="Y34" t="n">
-        <v>71.03429690468309</v>
+        <v>68.32343300846946</v>
       </c>
     </row>
     <row r="35">
@@ -6914,49 +6914,49 @@
         <v>1150.631106402408</v>
       </c>
       <c r="C35" t="n">
-        <v>975.8081143854333</v>
+        <v>975.8081143854332</v>
       </c>
       <c r="D35" t="n">
         <v>811.4703374435539</v>
       </c>
       <c r="E35" t="n">
-        <v>620.3514463595644</v>
+        <v>620.3514463595645</v>
       </c>
       <c r="F35" t="n">
-        <v>404.8125272702684</v>
+        <v>404.8125272702687</v>
       </c>
       <c r="G35" t="n">
-        <v>182.1662456057715</v>
+        <v>182.1662456057714</v>
       </c>
       <c r="H35" t="n">
         <v>41.9027332949972</v>
       </c>
       <c r="I35" t="n">
-        <v>50.72478900913535</v>
+        <v>50.72478900913543</v>
       </c>
       <c r="J35" t="n">
-        <v>286.1239465768858</v>
+        <v>139.3998240944726</v>
       </c>
       <c r="K35" t="n">
-        <v>665.4589750808188</v>
+        <v>184.9947358151344</v>
       </c>
       <c r="L35" t="n">
-        <v>711.8166565280719</v>
+        <v>661.3764037635314</v>
       </c>
       <c r="M35" t="n">
-        <v>711.8166565280719</v>
+        <v>993.0501095896527</v>
       </c>
       <c r="N35" t="n">
-        <v>1186.741670385204</v>
+        <v>1462.876493924827</v>
       </c>
       <c r="O35" t="n">
-        <v>1636.189939039148</v>
+        <v>1720.353532332454</v>
       </c>
       <c r="P35" t="n">
-        <v>2010.973071456554</v>
+        <v>2095.13666474986</v>
       </c>
       <c r="Q35" t="n">
-        <v>2010.973071456554</v>
+        <v>2095.13666474986</v>
       </c>
       <c r="R35" t="n">
         <v>2095.13666474986</v>
@@ -6965,13 +6965,13 @@
         <v>2095.13666474986</v>
       </c>
       <c r="T35" t="n">
-        <v>2068.108088667746</v>
+        <v>2068.108088667745</v>
       </c>
       <c r="U35" t="n">
-        <v>2010.001562449059</v>
+        <v>2010.001562449058</v>
       </c>
       <c r="V35" t="n">
-        <v>1874.018847357765</v>
+        <v>1874.018847357764</v>
       </c>
       <c r="W35" t="n">
         <v>1715.81704592502</v>
@@ -7011,52 +7011,52 @@
         <v>41.9027332949972</v>
       </c>
       <c r="I36" t="n">
-        <v>147.3775442122905</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="J36" t="n">
-        <v>147.3775442122905</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="K36" t="n">
-        <v>147.3775442122905</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="L36" t="n">
-        <v>147.3775442122905</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="M36" t="n">
-        <v>159.1131797932482</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="N36" t="n">
-        <v>191.8610274057986</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="O36" t="n">
-        <v>191.8610274057986</v>
+        <v>99.53533108750557</v>
       </c>
       <c r="P36" t="n">
-        <v>191.8610274057986</v>
+        <v>99.53533108750557</v>
       </c>
       <c r="Q36" t="n">
-        <v>191.8610274057986</v>
+        <v>191.8610274057981</v>
       </c>
       <c r="R36" t="n">
-        <v>191.8610274057986</v>
+        <v>191.8610274057981</v>
       </c>
       <c r="S36" t="n">
-        <v>191.8610274057986</v>
+        <v>191.8610274057981</v>
       </c>
       <c r="T36" t="n">
-        <v>188.4864720314551</v>
+        <v>188.4864720314547</v>
       </c>
       <c r="U36" t="n">
-        <v>157.44770752547</v>
+        <v>157.4477075254697</v>
       </c>
       <c r="V36" t="n">
-        <v>119.0654878714122</v>
+        <v>119.0654878714119</v>
       </c>
       <c r="W36" t="n">
-        <v>62.42002002508671</v>
+        <v>62.42002002508654</v>
       </c>
       <c r="X36" t="n">
-        <v>51.76214525100547</v>
+        <v>51.76214525100539</v>
       </c>
       <c r="Y36" t="n">
         <v>41.9027332949972</v>
@@ -7096,46 +7096,46 @@
         <v>41.9027332949972</v>
       </c>
       <c r="K37" t="n">
-        <v>136.4108043147156</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="L37" t="n">
-        <v>372.8998379723799</v>
+        <v>138.312827882206</v>
       </c>
       <c r="M37" t="n">
-        <v>372.8998379723799</v>
+        <v>138.312827882206</v>
       </c>
       <c r="N37" t="n">
-        <v>372.8998379723799</v>
+        <v>242.6863632856887</v>
       </c>
       <c r="O37" t="n">
-        <v>372.8998379723799</v>
+        <v>242.6863632856887</v>
       </c>
       <c r="P37" t="n">
-        <v>372.8998379723799</v>
+        <v>372.8998379723793</v>
       </c>
       <c r="Q37" t="n">
-        <v>372.8998379723799</v>
+        <v>372.8998379723793</v>
       </c>
       <c r="R37" t="n">
-        <v>403.6890142751064</v>
+        <v>403.6890142751059</v>
       </c>
       <c r="S37" t="n">
-        <v>379.097065073887</v>
+        <v>379.0970650738865</v>
       </c>
       <c r="T37" t="n">
-        <v>345.3428630095158</v>
+        <v>345.3428630095154</v>
       </c>
       <c r="U37" t="n">
-        <v>252.2831650383112</v>
+        <v>252.2831650383108</v>
       </c>
       <c r="V37" t="n">
-        <v>192.6609251546735</v>
+        <v>192.6609251546732</v>
       </c>
       <c r="W37" t="n">
-        <v>99.54754807863539</v>
+        <v>99.54754807863522</v>
       </c>
       <c r="X37" t="n">
-        <v>66.99196590674507</v>
+        <v>66.99196590674498</v>
       </c>
       <c r="Y37" t="n">
         <v>41.9027332949972</v>
@@ -7151,55 +7151,55 @@
         <v>1150.631106402408</v>
       </c>
       <c r="C38" t="n">
-        <v>975.8081143854337</v>
+        <v>975.808114385434</v>
       </c>
       <c r="D38" t="n">
-        <v>811.4703374435542</v>
+        <v>811.4703374435546</v>
       </c>
       <c r="E38" t="n">
-        <v>620.3514463595645</v>
+        <v>620.3514463595652</v>
       </c>
       <c r="F38" t="n">
-        <v>404.8125272702684</v>
+        <v>404.8125272702693</v>
       </c>
       <c r="G38" t="n">
-        <v>182.1662456057716</v>
+        <v>182.1662456057715</v>
       </c>
       <c r="H38" t="n">
         <v>41.9027332949972</v>
       </c>
       <c r="I38" t="n">
-        <v>50.72478900913529</v>
+        <v>50.72478900913538</v>
       </c>
       <c r="J38" t="n">
-        <v>112.0220715957186</v>
+        <v>286.1239465768859</v>
       </c>
       <c r="K38" t="n">
-        <v>157.6169833163802</v>
+        <v>404.6682903969995</v>
       </c>
       <c r="L38" t="n">
-        <v>633.998651264777</v>
+        <v>689.0787280990799</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6723570908983</v>
+        <v>1146.754220419628</v>
       </c>
       <c r="N38" t="n">
-        <v>1479.166945485517</v>
+        <v>1468.27757856793</v>
       </c>
       <c r="O38" t="n">
-        <v>1576.08521552094</v>
+        <v>1468.27757856793</v>
       </c>
       <c r="P38" t="n">
-        <v>1950.868347938347</v>
+        <v>1843.060710985337</v>
       </c>
       <c r="Q38" t="n">
-        <v>2010.973071456554</v>
+        <v>2095.13666474986</v>
       </c>
       <c r="R38" t="n">
         <v>2095.13666474986</v>
       </c>
       <c r="S38" t="n">
-        <v>2095.136664749861</v>
+        <v>2095.13666474986</v>
       </c>
       <c r="T38" t="n">
         <v>2068.108088667746</v>
@@ -7217,7 +7217,7 @@
         <v>1537.078393855292</v>
       </c>
       <c r="Y38" t="n">
-        <v>1342.354415906708</v>
+        <v>1342.354415906709</v>
       </c>
     </row>
     <row r="39">
@@ -7227,73 +7227,73 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>70.15555918707223</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="C39" t="n">
-        <v>70.15555918707223</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="D39" t="n">
-        <v>70.15555918707223</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="E39" t="n">
-        <v>70.15555918707223</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="F39" t="n">
-        <v>86.38621648850568</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="G39" t="n">
-        <v>86.38621648850568</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="H39" t="n">
-        <v>86.38621648850568</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="I39" t="n">
-        <v>191.8610274057989</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="J39" t="n">
-        <v>191.8610274057989</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="K39" t="n">
-        <v>191.8610274057989</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="L39" t="n">
-        <v>191.8610274057989</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="M39" t="n">
-        <v>191.8610274057989</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="N39" t="n">
-        <v>191.8610274057989</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="O39" t="n">
-        <v>191.8610274057989</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="P39" t="n">
-        <v>191.8610274057989</v>
+        <v>99.53533108750597</v>
       </c>
       <c r="Q39" t="n">
-        <v>191.8610274057989</v>
+        <v>191.8610274057984</v>
       </c>
       <c r="R39" t="n">
-        <v>191.8610274057989</v>
+        <v>191.8610274057984</v>
       </c>
       <c r="S39" t="n">
-        <v>191.8610274057989</v>
+        <v>191.8610274057984</v>
       </c>
       <c r="T39" t="n">
-        <v>188.4864720314554</v>
+        <v>188.486472031455</v>
       </c>
       <c r="U39" t="n">
-        <v>157.4477075254703</v>
+        <v>157.4477075254699</v>
       </c>
       <c r="V39" t="n">
-        <v>119.0654878714123</v>
+        <v>119.0654878714121</v>
       </c>
       <c r="W39" t="n">
-        <v>62.42002002508682</v>
+        <v>62.42002002508665</v>
       </c>
       <c r="X39" t="n">
-        <v>51.76214525100553</v>
+        <v>51.76214525100544</v>
       </c>
       <c r="Y39" t="n">
         <v>41.9027332949972</v>
@@ -7309,70 +7309,70 @@
         <v>41.9027332949972</v>
       </c>
       <c r="C40" t="n">
-        <v>41.9027332949972</v>
+        <v>47.64872478059503</v>
       </c>
       <c r="D40" t="n">
-        <v>41.9027332949972</v>
+        <v>47.64872478059503</v>
       </c>
       <c r="E40" t="n">
-        <v>41.9027332949972</v>
+        <v>47.64872478059503</v>
       </c>
       <c r="F40" t="n">
-        <v>41.9027332949972</v>
+        <v>47.64872478059503</v>
       </c>
       <c r="G40" t="n">
-        <v>41.9027332949972</v>
+        <v>73.64223207252678</v>
       </c>
       <c r="H40" t="n">
-        <v>41.9027332949972</v>
+        <v>73.64223207252678</v>
       </c>
       <c r="I40" t="n">
-        <v>41.9027332949972</v>
+        <v>120.3985468610934</v>
       </c>
       <c r="J40" t="n">
-        <v>41.9027332949972</v>
+        <v>120.3985468610934</v>
       </c>
       <c r="K40" t="n">
-        <v>54.34295589685338</v>
+        <v>214.9066178808118</v>
       </c>
       <c r="L40" t="n">
-        <v>54.34295589685338</v>
+        <v>214.9066178808118</v>
       </c>
       <c r="M40" t="n">
-        <v>54.34295589685338</v>
+        <v>214.9066178808118</v>
       </c>
       <c r="N40" t="n">
-        <v>143.6487823170774</v>
+        <v>304.2124443010359</v>
       </c>
       <c r="O40" t="n">
-        <v>402.7718012739106</v>
+        <v>304.2124443010359</v>
       </c>
       <c r="P40" t="n">
-        <v>403.6890142751068</v>
+        <v>338.4499189785645</v>
       </c>
       <c r="Q40" t="n">
-        <v>403.6890142751068</v>
+        <v>403.6890142751062</v>
       </c>
       <c r="R40" t="n">
-        <v>403.6890142751068</v>
+        <v>403.6890142751062</v>
       </c>
       <c r="S40" t="n">
-        <v>379.0970650738873</v>
+        <v>379.0970650738868</v>
       </c>
       <c r="T40" t="n">
-        <v>345.3428630095161</v>
+        <v>345.3428630095157</v>
       </c>
       <c r="U40" t="n">
-        <v>252.2831650383114</v>
+        <v>252.283165038311</v>
       </c>
       <c r="V40" t="n">
-        <v>192.6609251546736</v>
+        <v>192.6609251546734</v>
       </c>
       <c r="W40" t="n">
-        <v>99.5475480786355</v>
+        <v>99.54754807863533</v>
       </c>
       <c r="X40" t="n">
-        <v>66.99196590674512</v>
+        <v>66.99196590674504</v>
       </c>
       <c r="Y40" t="n">
         <v>41.9027332949972</v>
@@ -7388,16 +7388,16 @@
         <v>1150.631106402408</v>
       </c>
       <c r="C41" t="n">
-        <v>975.8081143854333</v>
+        <v>975.8081143854332</v>
       </c>
       <c r="D41" t="n">
-        <v>811.4703374435539</v>
+        <v>811.4703374435538</v>
       </c>
       <c r="E41" t="n">
         <v>620.3514463595643</v>
       </c>
       <c r="F41" t="n">
-        <v>404.8125272702684</v>
+        <v>404.8125272702683</v>
       </c>
       <c r="G41" t="n">
         <v>182.1662456057715</v>
@@ -7406,31 +7406,31 @@
         <v>41.9027332949972</v>
       </c>
       <c r="I41" t="n">
-        <v>50.72478900913532</v>
+        <v>50.72478900913535</v>
       </c>
       <c r="J41" t="n">
-        <v>286.1239465768858</v>
+        <v>50.72478900913535</v>
       </c>
       <c r="K41" t="n">
-        <v>451.4465340587562</v>
+        <v>140.4543067171213</v>
       </c>
       <c r="L41" t="n">
-        <v>927.828202007153</v>
+        <v>616.8359746655182</v>
       </c>
       <c r="M41" t="n">
-        <v>1446.374526532743</v>
+        <v>948.5096804916395</v>
       </c>
       <c r="N41" t="n">
-        <v>1446.374526532743</v>
+        <v>1462.004268886258</v>
       </c>
       <c r="O41" t="n">
-        <v>1895.822795186687</v>
+        <v>1462.004268886258</v>
       </c>
       <c r="P41" t="n">
-        <v>2078.634697357777</v>
+        <v>1836.787401303664</v>
       </c>
       <c r="Q41" t="n">
-        <v>2078.634697357777</v>
+        <v>2088.863355068188</v>
       </c>
       <c r="R41" t="n">
         <v>2095.13666474986</v>
@@ -7485,52 +7485,52 @@
         <v>41.9027332949972</v>
       </c>
       <c r="I42" t="n">
-        <v>147.3775442122905</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="J42" t="n">
-        <v>147.3775442122905</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="K42" t="n">
-        <v>147.3775442122905</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="L42" t="n">
-        <v>147.3775442122905</v>
+        <v>160.4709035041</v>
       </c>
       <c r="M42" t="n">
-        <v>147.3775442122905</v>
+        <v>160.4709035041</v>
       </c>
       <c r="N42" t="n">
-        <v>147.3775442122905</v>
+        <v>160.4709035041</v>
       </c>
       <c r="O42" t="n">
-        <v>147.3775442122905</v>
+        <v>160.4709035041</v>
       </c>
       <c r="P42" t="n">
-        <v>147.3775442122905</v>
+        <v>160.4709035041</v>
       </c>
       <c r="Q42" t="n">
-        <v>147.3775442122905</v>
+        <v>162.0001888132151</v>
       </c>
       <c r="R42" t="n">
-        <v>191.8610274057988</v>
+        <v>162.0001888132151</v>
       </c>
       <c r="S42" t="n">
-        <v>191.8610274057988</v>
+        <v>191.8610274057986</v>
       </c>
       <c r="T42" t="n">
-        <v>188.4864720314553</v>
+        <v>188.4864720314551</v>
       </c>
       <c r="U42" t="n">
-        <v>157.4477075254702</v>
+        <v>157.44770752547</v>
       </c>
       <c r="V42" t="n">
         <v>119.0654878714122</v>
       </c>
       <c r="W42" t="n">
-        <v>62.42002002508676</v>
+        <v>62.42002002508671</v>
       </c>
       <c r="X42" t="n">
-        <v>51.7621452510055</v>
+        <v>51.76214525100547</v>
       </c>
       <c r="Y42" t="n">
         <v>41.9027332949972</v>
@@ -7552,64 +7552,64 @@
         <v>41.9027332949972</v>
       </c>
       <c r="E43" t="n">
-        <v>88.36908560984645</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="F43" t="n">
-        <v>135.6428846604564</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="G43" t="n">
-        <v>135.6428846604564</v>
+        <v>67.89624058692893</v>
       </c>
       <c r="H43" t="n">
-        <v>135.6428846604564</v>
+        <v>67.89624058692893</v>
       </c>
       <c r="I43" t="n">
-        <v>135.6428846604564</v>
+        <v>114.6525553754955</v>
       </c>
       <c r="J43" t="n">
-        <v>135.6428846604564</v>
+        <v>114.6525553754955</v>
       </c>
       <c r="K43" t="n">
-        <v>144.5659953182735</v>
+        <v>127.0927779773517</v>
       </c>
       <c r="L43" t="n">
-        <v>144.5659953182735</v>
+        <v>223.5028725645604</v>
       </c>
       <c r="M43" t="n">
-        <v>144.5659953182735</v>
+        <v>285.6938906366715</v>
       </c>
       <c r="N43" t="n">
-        <v>144.5659953182735</v>
+        <v>285.6938906366715</v>
       </c>
       <c r="O43" t="n">
-        <v>403.6890142751067</v>
+        <v>285.6938906366715</v>
       </c>
       <c r="P43" t="n">
-        <v>403.6890142751067</v>
+        <v>372.8998379723799</v>
       </c>
       <c r="Q43" t="n">
-        <v>403.6890142751067</v>
+        <v>372.8998379723799</v>
       </c>
       <c r="R43" t="n">
-        <v>403.6890142751067</v>
+        <v>403.6890142751064</v>
       </c>
       <c r="S43" t="n">
-        <v>379.0970650738872</v>
+        <v>379.097065073887</v>
       </c>
       <c r="T43" t="n">
-        <v>345.342863009516</v>
+        <v>345.3428630095158</v>
       </c>
       <c r="U43" t="n">
-        <v>252.2831650383113</v>
+        <v>252.2831650383112</v>
       </c>
       <c r="V43" t="n">
         <v>192.6609251546735</v>
       </c>
       <c r="W43" t="n">
-        <v>99.54754807863544</v>
+        <v>99.54754807863539</v>
       </c>
       <c r="X43" t="n">
-        <v>66.99196590674509</v>
+        <v>66.99196590674507</v>
       </c>
       <c r="Y43" t="n">
         <v>41.9027332949972</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1150.631106402408</v>
+        <v>1150.631106402409</v>
       </c>
       <c r="C44" t="n">
-        <v>975.8081143854337</v>
+        <v>975.8081143854342</v>
       </c>
       <c r="D44" t="n">
-        <v>811.4703374435544</v>
+        <v>811.4703374435549</v>
       </c>
       <c r="E44" t="n">
-        <v>620.3514463595645</v>
+        <v>620.3514463595649</v>
       </c>
       <c r="F44" t="n">
-        <v>404.8125272702684</v>
+        <v>404.8125272702689</v>
       </c>
       <c r="G44" t="n">
         <v>182.1662456057715</v>
@@ -7646,28 +7646,28 @@
         <v>41.9027332949972</v>
       </c>
       <c r="J44" t="n">
-        <v>52.91935964343456</v>
+        <v>244.0716344800541</v>
       </c>
       <c r="K44" t="n">
-        <v>432.2543881473676</v>
+        <v>244.0716344800541</v>
       </c>
       <c r="L44" t="n">
-        <v>908.6360560957645</v>
+        <v>613.1423584723783</v>
       </c>
       <c r="M44" t="n">
-        <v>969.4618580839821</v>
+        <v>613.1423584723783</v>
       </c>
       <c r="N44" t="n">
-        <v>1451.775611175847</v>
+        <v>1126.636946866997</v>
       </c>
       <c r="O44" t="n">
-        <v>1451.775611175847</v>
+        <v>1576.08521552094</v>
       </c>
       <c r="P44" t="n">
-        <v>1826.558743593253</v>
+        <v>1758.89711769203</v>
       </c>
       <c r="Q44" t="n">
-        <v>2078.634697357777</v>
+        <v>2010.973071456554</v>
       </c>
       <c r="R44" t="n">
         <v>2095.13666474986</v>
@@ -7682,10 +7682,10 @@
         <v>2010.00156244906</v>
       </c>
       <c r="V44" t="n">
-        <v>1874.018847357765</v>
+        <v>1874.018847357766</v>
       </c>
       <c r="W44" t="n">
-        <v>1715.817045925021</v>
+        <v>1715.817045925022</v>
       </c>
       <c r="X44" t="n">
         <v>1537.078393855293</v>
@@ -7725,49 +7725,49 @@
         <v>41.9027332949972</v>
       </c>
       <c r="J45" t="n">
-        <v>41.9027332949972</v>
+        <v>43.4320186041122</v>
       </c>
       <c r="K45" t="n">
-        <v>41.9027332949972</v>
+        <v>43.4320186041122</v>
       </c>
       <c r="L45" t="n">
-        <v>41.9027332949972</v>
+        <v>162.0001888132151</v>
       </c>
       <c r="M45" t="n">
-        <v>41.9027332949972</v>
+        <v>162.0001888132151</v>
       </c>
       <c r="N45" t="n">
-        <v>41.9027332949972</v>
+        <v>162.0001888132151</v>
       </c>
       <c r="O45" t="n">
-        <v>41.9027332949972</v>
+        <v>162.0001888132151</v>
       </c>
       <c r="P45" t="n">
-        <v>41.9027332949972</v>
+        <v>162.0001888132151</v>
       </c>
       <c r="Q45" t="n">
-        <v>191.8610274057988</v>
+        <v>162.0001888132151</v>
       </c>
       <c r="R45" t="n">
-        <v>191.8610274057988</v>
+        <v>162.0001888132151</v>
       </c>
       <c r="S45" t="n">
-        <v>191.8610274057988</v>
+        <v>191.8610274057986</v>
       </c>
       <c r="T45" t="n">
-        <v>188.4864720314553</v>
+        <v>188.4864720314551</v>
       </c>
       <c r="U45" t="n">
-        <v>157.4477075254702</v>
+        <v>157.44770752547</v>
       </c>
       <c r="V45" t="n">
         <v>119.0654878714122</v>
       </c>
       <c r="W45" t="n">
-        <v>62.42002002508676</v>
+        <v>62.42002002508671</v>
       </c>
       <c r="X45" t="n">
-        <v>51.7621452510055</v>
+        <v>51.76214525100547</v>
       </c>
       <c r="Y45" t="n">
         <v>41.9027332949972</v>
@@ -7789,64 +7789,64 @@
         <v>41.9027332949972</v>
       </c>
       <c r="E46" t="n">
-        <v>41.9027332949972</v>
+        <v>86.22499008474064</v>
       </c>
       <c r="F46" t="n">
-        <v>41.9027332949972</v>
+        <v>86.22499008474064</v>
       </c>
       <c r="G46" t="n">
-        <v>41.9027332949972</v>
+        <v>86.22499008474064</v>
       </c>
       <c r="H46" t="n">
-        <v>41.9027332949972</v>
+        <v>86.22499008474064</v>
       </c>
       <c r="I46" t="n">
-        <v>41.9027332949972</v>
+        <v>86.22499008474064</v>
       </c>
       <c r="J46" t="n">
-        <v>74.22631919446653</v>
+        <v>86.22499008474064</v>
       </c>
       <c r="K46" t="n">
-        <v>74.22631919446653</v>
+        <v>86.22499008474064</v>
       </c>
       <c r="L46" t="n">
-        <v>145.9491362425432</v>
+        <v>86.22499008474064</v>
       </c>
       <c r="M46" t="n">
-        <v>232.1636901611072</v>
+        <v>86.22499008474064</v>
       </c>
       <c r="N46" t="n">
-        <v>336.5372255645898</v>
+        <v>86.22499008474064</v>
       </c>
       <c r="O46" t="n">
-        <v>403.6890142751067</v>
+        <v>177.4803093512613</v>
       </c>
       <c r="P46" t="n">
-        <v>403.6890142751067</v>
+        <v>403.6890142751064</v>
       </c>
       <c r="Q46" t="n">
-        <v>403.6890142751067</v>
+        <v>403.6890142751064</v>
       </c>
       <c r="R46" t="n">
-        <v>403.6890142751067</v>
+        <v>403.6890142751064</v>
       </c>
       <c r="S46" t="n">
-        <v>379.0970650738872</v>
+        <v>379.097065073887</v>
       </c>
       <c r="T46" t="n">
-        <v>345.342863009516</v>
+        <v>345.3428630095158</v>
       </c>
       <c r="U46" t="n">
-        <v>252.2831650383113</v>
+        <v>252.2831650383112</v>
       </c>
       <c r="V46" t="n">
         <v>192.6609251546735</v>
       </c>
       <c r="W46" t="n">
-        <v>99.54754807863544</v>
+        <v>99.54754807863539</v>
       </c>
       <c r="X46" t="n">
-        <v>66.99196590674509</v>
+        <v>66.99196590674507</v>
       </c>
       <c r="Y46" t="n">
         <v>41.9027332949972</v>
@@ -8690,25 +8690,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.01087647355324</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>230.1188595997212</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>130.0697325517949</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>259.5736467412821</v>
+        <v>150.0121694568371</v>
       </c>
       <c r="Q11" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>34.15168893079507</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>31.4057476502897</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>51.35044462789894</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>50.57997015659487</v>
       </c>
       <c r="M14" t="n">
-        <v>35.96570698390322</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>130.0697325517949</v>
       </c>
       <c r="O14" t="n">
-        <v>135.9543719398946</v>
+        <v>245.5158492243398</v>
       </c>
       <c r="P14" t="n">
-        <v>150.0121694568371</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>81.36995650665189</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>98.56463934727405</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -9100,10 +9100,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>140.4068258466027</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>13.80895223939283</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q26" t="n">
-        <v>97.37109205330661</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R26" t="n">
         <v>68.34507666790174</v>
@@ -9948,31 +9948,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>10.53077703452832</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>131.1346767540252</v>
+        <v>97.1473826293371</v>
       </c>
       <c r="K27" t="n">
-        <v>89.06968960704256</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L27" t="n">
-        <v>74.1445050880946</v>
+        <v>164.9541362597291</v>
       </c>
       <c r="M27" t="n">
-        <v>67.45955797656308</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>55.0546796300295</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>72.24740769184261</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>77.02505511384632</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>100.6520544727516</v>
+        <v>15.77360779434741</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10039,7 +10039,7 @@
         <v>168.9736896032166</v>
       </c>
       <c r="M28" t="n">
-        <v>185.6500473458235</v>
+        <v>98.56463934727405</v>
       </c>
       <c r="N28" t="n">
         <v>178.6904255182403</v>
@@ -10048,10 +10048,10 @@
         <v>169.5633330205178</v>
       </c>
       <c r="P28" t="n">
-        <v>140.4068258466027</v>
+        <v>105.8235180915233</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10112,10 +10112,10 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K29" t="n">
-        <v>212.9817143085419</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L29" t="n">
-        <v>434.3676631324684</v>
+        <v>419.9399476702835</v>
       </c>
       <c r="M29" t="n">
         <v>467.4940748325458</v>
@@ -10133,7 +10133,7 @@
         <v>220.8075902863009</v>
       </c>
       <c r="R29" t="n">
-        <v>12.27116929750179</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,19 +10185,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10.53077703452832</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
-        <v>275.0438464930818</v>
+        <v>107.5088836647778</v>
       </c>
       <c r="L30" t="n">
         <v>74.1445050880946</v>
       </c>
       <c r="M30" t="n">
-        <v>67.45955797656308</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>55.0546796300295</v>
@@ -10206,13 +10206,13 @@
         <v>72.24740769184261</v>
       </c>
       <c r="P30" t="n">
-        <v>77.02505511384632</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>100.6520544727516</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R30" t="n">
-        <v>47.34253660377365</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,10 +10267,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>111.0135169984386</v>
+        <v>98.44763558242229</v>
       </c>
       <c r="L31" t="n">
         <v>96.52639965566443</v>
@@ -10279,13 +10279,13 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N31" t="n">
-        <v>178.6904255182403</v>
+        <v>88.4825200432665</v>
       </c>
       <c r="O31" t="n">
-        <v>101.7332434139352</v>
+        <v>169.5633330205178</v>
       </c>
       <c r="P31" t="n">
-        <v>140.4068258466027</v>
+        <v>105.8235180915233</v>
       </c>
       <c r="Q31" t="n">
         <v>67.95667671286152</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>8.180883374082583</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K32" t="n">
         <v>337.1112290740114</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>10.53077703452832</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>97.1473826293371</v>
@@ -10431,25 +10431,25 @@
         <v>89.06968960704256</v>
       </c>
       <c r="L33" t="n">
-        <v>74.1445050880946</v>
+        <v>220.9462045822855</v>
       </c>
       <c r="M33" t="n">
         <v>67.45955797656308</v>
       </c>
       <c r="N33" t="n">
-        <v>55.0546796300295</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>407.4727310000357</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>77.02505511384632</v>
       </c>
       <c r="Q33" t="n">
-        <v>100.6520544727516</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R33" t="n">
-        <v>47.34253660377365</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10507,19 +10507,19 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>98.44763558242229</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L34" t="n">
-        <v>96.52639965566443</v>
+        <v>137.4021036306733</v>
       </c>
       <c r="M34" t="n">
-        <v>185.6500473458235</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>49.02447822277608</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O34" t="n">
-        <v>101.7332434139352</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>140.4068258466027</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>175.8604797789567</v>
+        <v>27.65429545328668</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1112290740114</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M35" t="n">
-        <v>132.4701295536354</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N35" t="n">
-        <v>415.8816351889827</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O35" t="n">
         <v>396.0321885132552</v>
@@ -10607,7 +10607,7 @@
         <v>160.0957483487178</v>
       </c>
       <c r="R35" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,25 +10665,25 @@
         <v>97.1473826293371</v>
       </c>
       <c r="K36" t="n">
-        <v>89.06968960704256</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>74.1445050880946</v>
       </c>
       <c r="M36" t="n">
-        <v>79.31373533106576</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>72.24740769184261</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>77.02505511384632</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>100.6520544727516</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10741,13 +10741,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>141.4938778489451</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -10756,13 +10756,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>101.7332434139352</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>105.8235180915233</v>
+        <v>140.4068258466027</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>73.68629504995134</v>
       </c>
       <c r="L38" t="n">
         <v>434.3676631324684</v>
@@ -10835,7 +10835,7 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O38" t="n">
-        <v>39.94128081778086</v>
+        <v>135.9543719398946</v>
       </c>
       <c r="P38" t="n">
         <v>334.6706564983419</v>
@@ -10844,7 +10844,7 @@
         <v>220.8075902863009</v>
       </c>
       <c r="R38" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,16 +10896,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>15.46833448832212</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>89.06968960704256</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>74.1445050880946</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>77.02505511384632</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>100.6520544727516</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10978,13 +10978,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K40" t="n">
-        <v>111.0135169984386</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>96.52639965566443</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>98.56463934727405</v>
@@ -10993,10 +10993,10 @@
         <v>178.6904255182403</v>
       </c>
       <c r="O40" t="n">
-        <v>169.5633330205178</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>106.7499958705094</v>
+        <v>140.4068258466027</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>175.8604797789567</v>
+        <v>131.993886524983</v>
       </c>
       <c r="K41" t="n">
-        <v>120.9370462234432</v>
+        <v>44.58041008820631</v>
       </c>
       <c r="L41" t="n">
         <v>434.3676631324684</v>
       </c>
       <c r="M41" t="n">
-        <v>462.3439621589627</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N41" t="n">
-        <v>130.0697325517949</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O41" t="n">
-        <v>396.0321885132552</v>
+        <v>135.9543719398946</v>
       </c>
       <c r="P41" t="n">
         <v>334.6706564983419</v>
       </c>
       <c r="Q41" t="n">
-        <v>160.0957483487178</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11151,13 +11151,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>72.24740769184261</v>
       </c>
       <c r="P42" t="n">
-        <v>51.14055104697513</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>100.6520544727516</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11218,25 +11218,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>107.4608786711263</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L43" t="n">
-        <v>96.52639965566443</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>161.3838495211236</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>169.5633330205178</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>105.8235180915233</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,22 +11294,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>142.2945642408823</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1112290740114</v>
+        <v>147.854867197631</v>
       </c>
       <c r="L44" t="n">
         <v>434.3676631324684</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>132.4701295536353</v>
       </c>
       <c r="N44" t="n">
-        <v>423.3450081533584</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O44" t="n">
-        <v>135.9543719398945</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P44" t="n">
         <v>334.6706564983419</v>
@@ -11318,7 +11318,7 @@
         <v>220.8075902863009</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>97.14738262933707</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>89.06968960704249</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>74.1445050880945</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>67.45955797656298</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>55.05467963002938</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>72.24740769184251</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>77.02505511384624</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>58.21474524495869</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>47.34253660377365</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,25 +11452,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K46" t="n">
-        <v>98.44763558242225</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>168.9736896032166</v>
+        <v>96.52639965566441</v>
       </c>
       <c r="M46" t="n">
-        <v>185.6500473458235</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>169.5633330205178</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>140.4068258466027</v>
       </c>
       <c r="Q46" t="n">
         <v>67.95667671286152</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.650510137218</v>
+        <v>177.6505101372182</v>
       </c>
       <c r="C11" t="n">
-        <v>51.3577185403206</v>
+        <v>160.9191958247658</v>
       </c>
       <c r="D11" t="n">
-        <v>40.97735561597636</v>
+        <v>150.5388329004215</v>
       </c>
       <c r="E11" t="n">
-        <v>140.523005442686</v>
+        <v>177.0521359011106</v>
       </c>
       <c r="F11" t="n">
-        <v>201.2279636263638</v>
+        <v>201.227963626364</v>
       </c>
       <c r="G11" t="n">
-        <v>208.2642525758129</v>
+        <v>98.70277529136789</v>
       </c>
       <c r="H11" t="n">
-        <v>17.14383363118239</v>
+        <v>126.7053109156276</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>14.6027240492546</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>45.36989468446029</v>
       </c>
       <c r="V11" t="n">
-        <v>122.4673216683423</v>
+        <v>25.96557247620319</v>
       </c>
       <c r="W11" t="n">
-        <v>144.4642171463775</v>
+        <v>34.90273986193253</v>
       </c>
       <c r="X11" t="n">
-        <v>164.7956992769923</v>
+        <v>55.23422199254736</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.6211718970588</v>
+        <v>180.621171897059</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>177.6505101372179</v>
+        <v>177.6505101372181</v>
       </c>
       <c r="C14" t="n">
-        <v>160.9191958247655</v>
+        <v>160.9191958247657</v>
       </c>
       <c r="D14" t="n">
-        <v>150.5388329004213</v>
+        <v>40.97735561597625</v>
       </c>
       <c r="E14" t="n">
-        <v>177.0521359011103</v>
+        <v>177.0521359011105</v>
       </c>
       <c r="F14" t="n">
-        <v>104.7262144342247</v>
+        <v>201.2279636263639</v>
       </c>
       <c r="G14" t="n">
-        <v>98.70277529136786</v>
+        <v>157.1323980681338</v>
       </c>
       <c r="H14" t="n">
-        <v>126.7053109156273</v>
+        <v>126.7053109156275</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>14.60272404925435</v>
+        <v>14.60272404925452</v>
       </c>
       <c r="U14" t="n">
-        <v>45.36989468446004</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>12.90584438389726</v>
+        <v>12.9058443838972</v>
       </c>
       <c r="W14" t="n">
-        <v>144.4642171463775</v>
+        <v>144.4642171463776</v>
       </c>
       <c r="X14" t="n">
-        <v>164.7956992769923</v>
+        <v>55.23422199254725</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.05969461261373</v>
+        <v>180.6211718970589</v>
       </c>
     </row>
     <row r="15">
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>8.562039965909207e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>548089.3284375167</v>
+        <v>548089.3284375166</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>769300.7384197855</v>
+        <v>769300.7384197856</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>769300.7384197856</v>
+        <v>769300.7384197855</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>722107.6803017447</v>
+        <v>722107.6803017446</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>722107.6803017445</v>
+        <v>722107.6803017447</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>722107.6803017448</v>
+        <v>722107.6803017447</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26314,46 @@
         <v>812156.3777557408</v>
       </c>
       <c r="C2" t="n">
-        <v>812156.3777557405</v>
+        <v>812156.3777557407</v>
       </c>
       <c r="D2" t="n">
-        <v>812156.3777557405</v>
+        <v>812156.3777557408</v>
       </c>
       <c r="E2" t="n">
-        <v>698539.7618700933</v>
+        <v>698539.7618700932</v>
       </c>
       <c r="F2" t="n">
-        <v>698539.7618700933</v>
+        <v>698539.7618700934</v>
       </c>
       <c r="G2" t="n">
+        <v>813919.4086149372</v>
+      </c>
+      <c r="H2" t="n">
+        <v>813919.4086149372</v>
+      </c>
+      <c r="I2" t="n">
+        <v>813919.4086149373</v>
+      </c>
+      <c r="J2" t="n">
+        <v>813919.4086149371</v>
+      </c>
+      <c r="K2" t="n">
+        <v>813919.4086149379</v>
+      </c>
+      <c r="L2" t="n">
+        <v>813919.4086149373</v>
+      </c>
+      <c r="M2" t="n">
+        <v>813919.408614937</v>
+      </c>
+      <c r="N2" t="n">
         <v>813919.4086149369</v>
       </c>
-      <c r="H2" t="n">
+      <c r="O2" t="n">
         <v>813919.4086149373</v>
       </c>
-      <c r="I2" t="n">
+      <c r="P2" t="n">
         <v>813919.4086149371</v>
-      </c>
-      <c r="J2" t="n">
-        <v>813919.4086149376</v>
-      </c>
-      <c r="K2" t="n">
-        <v>813919.4086149373</v>
-      </c>
-      <c r="L2" t="n">
-        <v>813919.4086149377</v>
-      </c>
-      <c r="M2" t="n">
-        <v>813919.4086149373</v>
-      </c>
-      <c r="N2" t="n">
-        <v>813919.4086149379</v>
-      </c>
-      <c r="O2" t="n">
-        <v>813919.4086149374</v>
-      </c>
-      <c r="P2" t="n">
-        <v>813919.4086149374</v>
       </c>
     </row>
     <row r="3">
@@ -26375,34 +26375,34 @@
         <v>302407.43135739</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>101364.2487325018</v>
+        <v>101364.2487325019</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.5409215677243e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>167657.1439280419</v>
+        <v>167657.1439280417</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>101364.2487325018</v>
+        <v>101364.248732502</v>
       </c>
       <c r="M3" t="n">
-        <v>23151.85858311965</v>
+        <v>23151.85858311968</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>30612.15955008884</v>
+        <v>30612.15955008863</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26445,16 +26445,16 @@
         <v>423151.8413876117</v>
       </c>
       <c r="L4" t="n">
-        <v>423151.8413876117</v>
+        <v>423151.8413876118</v>
       </c>
       <c r="M4" t="n">
         <v>422190.0895336543</v>
       </c>
       <c r="N4" t="n">
-        <v>422190.0895336542</v>
+        <v>422190.0895336543</v>
       </c>
       <c r="O4" t="n">
-        <v>422190.0895336542</v>
+        <v>422190.0895336543</v>
       </c>
       <c r="P4" t="n">
         <v>422190.0895336542</v>
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26829.93695763126</v>
+        <v>26829.93695763125</v>
       </c>
       <c r="F5" t="n">
         <v>26829.93695763126</v>
       </c>
       <c r="G5" t="n">
-        <v>37481.92574099713</v>
+        <v>37481.92574099714</v>
       </c>
       <c r="H5" t="n">
-        <v>37481.92574099713</v>
+        <v>37481.92574099714</v>
       </c>
       <c r="I5" t="n">
-        <v>37481.92574099713</v>
+        <v>37481.92574099714</v>
       </c>
       <c r="J5" t="n">
-        <v>55221.16596187473</v>
+        <v>55221.16596187472</v>
       </c>
       <c r="K5" t="n">
-        <v>55221.16596187473</v>
+        <v>55221.16596187471</v>
       </c>
       <c r="L5" t="n">
         <v>55221.16596187472</v>
       </c>
       <c r="M5" t="n">
-        <v>50992.77014201081</v>
+        <v>50992.77014201082</v>
       </c>
       <c r="N5" t="n">
-        <v>50992.77014201081</v>
+        <v>50992.77014201082</v>
       </c>
       <c r="O5" t="n">
         <v>50992.77014201081</v>
       </c>
       <c r="P5" t="n">
-        <v>50992.77014201081</v>
+        <v>50992.77014201082</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>314976.6571200492</v>
+        <v>314972.2495429012</v>
       </c>
       <c r="C6" t="n">
-        <v>314976.6571200489</v>
+        <v>314972.2495429011</v>
       </c>
       <c r="D6" t="n">
-        <v>314976.6571200489</v>
+        <v>314972.2495429012</v>
       </c>
       <c r="E6" t="n">
-        <v>15350.18868665968</v>
+        <v>15061.73956979752</v>
       </c>
       <c r="F6" t="n">
-        <v>317757.6200440497</v>
+        <v>317469.1709271878</v>
       </c>
       <c r="G6" t="n">
-        <v>255579.2850061603</v>
+        <v>255579.2850061607</v>
       </c>
       <c r="H6" t="n">
+        <v>356943.5337386625</v>
+      </c>
+      <c r="I6" t="n">
         <v>356943.5337386627</v>
       </c>
-      <c r="I6" t="n">
-        <v>356943.5337386624</v>
-      </c>
       <c r="J6" t="n">
-        <v>167889.2573374092</v>
+        <v>167889.2573374088</v>
       </c>
       <c r="K6" t="n">
-        <v>335546.4012654509</v>
+        <v>335546.4012654515</v>
       </c>
       <c r="L6" t="n">
-        <v>234182.1525329495</v>
+        <v>234182.1525329489</v>
       </c>
       <c r="M6" t="n">
-        <v>317584.6903561525</v>
+        <v>317584.6903561522</v>
       </c>
       <c r="N6" t="n">
-        <v>340736.5489392729</v>
+        <v>340736.5489392718</v>
       </c>
       <c r="O6" t="n">
-        <v>310124.3893891836</v>
+        <v>310124.3893891837</v>
       </c>
       <c r="P6" t="n">
-        <v>340736.5489392725</v>
+        <v>340736.5489392721</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="F2" t="n">
-        <v>206.0658998541771</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="G2" t="n">
-        <v>332.7712107698044</v>
+        <v>332.7712107698043</v>
       </c>
       <c r="H2" t="n">
-        <v>332.7712107698044</v>
+        <v>332.7712107698043</v>
       </c>
       <c r="I2" t="n">
         <v>332.7712107698044</v>
@@ -26710,16 +26710,16 @@
         <v>164.9705103532384</v>
       </c>
       <c r="K2" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="L2" t="n">
         <v>164.9705103532383</v>
       </c>
       <c r="M2" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="N2" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="O2" t="n">
         <v>193.9103335821378</v>
@@ -26777,7 +26777,7 @@
         <v>130.4974772429446</v>
       </c>
       <c r="P3" t="n">
-        <v>130.4974772429448</v>
+        <v>130.4974772429447</v>
       </c>
     </row>
     <row r="4">
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>109.561477284445</v>
+        <v>109.5614772844452</v>
       </c>
       <c r="F4" t="n">
-        <v>109.561477284445</v>
+        <v>109.5614772844452</v>
       </c>
       <c r="G4" t="n">
-        <v>109.561477284445</v>
+        <v>109.5614772844452</v>
       </c>
       <c r="H4" t="n">
-        <v>109.561477284445</v>
+        <v>109.5614772844452</v>
       </c>
       <c r="I4" t="n">
-        <v>109.561477284445</v>
+        <v>109.5614772844451</v>
       </c>
       <c r="J4" t="n">
-        <v>633.3456434719102</v>
+        <v>633.3456434719101</v>
       </c>
       <c r="K4" t="n">
-        <v>633.3456434719102</v>
+        <v>633.3456434719101</v>
       </c>
       <c r="L4" t="n">
-        <v>633.3456434719102</v>
+        <v>633.3456434719101</v>
       </c>
       <c r="M4" t="n">
         <v>523.7841661874651</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>126.7053109156273</v>
+        <v>126.7053109156274</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>38.26519943761102</v>
+        <v>38.26519943761082</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.7053109156272</v>
+        <v>126.7053109156275</v>
       </c>
       <c r="M2" t="n">
-        <v>28.93982322889957</v>
+        <v>28.9398232288996</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>38.26519943761105</v>
+        <v>38.26519943761079</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>109.561477284445</v>
+        <v>109.5614772844452</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>523.7841661874652</v>
+        <v>523.784166187465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>126.7053109156273</v>
+        <v>126.7053109156274</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>38.26519943761102</v>
+        <v>38.26519943761082</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>109.561477284445</v>
+        <v>109.5614772844452</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="C11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="D11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="E11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="F11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="G11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="H11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="I11" t="n">
-        <v>206.065899854177</v>
+        <v>184.9991661941195</v>
       </c>
       <c r="J11" t="n">
-        <v>131.993886524983</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="K11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="L11" t="n">
-        <v>147.0843927263266</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>132.4701295536354</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="N11" t="n">
-        <v>206.065899854177</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>155.2356389327043</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="R11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="S11" t="n">
-        <v>206.065899854177</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="T11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="U11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="V11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="W11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="X11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="Y11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541768</v>
       </c>
     </row>
     <row r="12">
@@ -28196,10 +28196,10 @@
         <v>89.06968960704256</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2772350852246</v>
+        <v>74.1445050880946</v>
       </c>
       <c r="M12" t="n">
-        <v>67.45955797656308</v>
+        <v>33.30786904576799</v>
       </c>
       <c r="N12" t="n">
         <v>55.0546796300295</v>
@@ -28211,7 +28211,7 @@
         <v>77.02505511384632</v>
       </c>
       <c r="Q12" t="n">
-        <v>100.6520544727516</v>
+        <v>190.7847844698821</v>
       </c>
       <c r="R12" t="n">
         <v>124.6099476115524</v>
@@ -28223,13 +28223,13 @@
         <v>197.2511434027379</v>
       </c>
       <c r="U12" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="V12" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="W12" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="X12" t="n">
         <v>204.4616296084783</v>
@@ -28275,19 +28275,19 @@
         <v>98.44763558242229</v>
       </c>
       <c r="L13" t="n">
-        <v>96.52639965566443</v>
+        <v>163.3165560337267</v>
       </c>
       <c r="M13" t="n">
-        <v>98.56463934727405</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="N13" t="n">
-        <v>198.0439973277115</v>
+        <v>88.4825200432665</v>
       </c>
       <c r="O13" t="n">
-        <v>170.5534576920417</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="P13" t="n">
-        <v>206.065899854177</v>
+        <v>105.8235180915233</v>
       </c>
       <c r="Q13" t="n">
         <v>128.0122575250251</v>
@@ -28296,25 +28296,25 @@
         <v>162.8101554985757</v>
       </c>
       <c r="S13" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="T13" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="U13" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="V13" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="W13" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="X13" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541768</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541768</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>206.0658998541771</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="C14" t="n">
-        <v>206.0658998541771</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="D14" t="n">
-        <v>206.0658998541771</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="E14" t="n">
-        <v>206.0658998541771</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="F14" t="n">
-        <v>206.0658998541771</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="G14" t="n">
-        <v>206.0658998541771</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="H14" t="n">
-        <v>206.0658998541771</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="I14" t="n">
-        <v>206.0658998541771</v>
+        <v>184.9991661941195</v>
       </c>
       <c r="J14" t="n">
-        <v>206.0658998541771</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="K14" t="n">
-        <v>206.0658998541771</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="L14" t="n">
-        <v>147.0843927263266</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="M14" t="n">
-        <v>206.0658998541771</v>
+        <v>146.67401511248</v>
       </c>
       <c r="N14" t="n">
-        <v>206.0658998541771</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.7257918420659</v>
+        <v>160.0957483487178</v>
       </c>
       <c r="R14" t="n">
-        <v>177.2416796507401</v>
+        <v>108.8966029828384</v>
       </c>
       <c r="S14" t="n">
-        <v>206.0658998541771</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="T14" t="n">
-        <v>206.0658998541771</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="U14" t="n">
-        <v>206.0658998541771</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="V14" t="n">
-        <v>206.0658998541771</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="W14" t="n">
-        <v>206.0658998541771</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="X14" t="n">
-        <v>206.0658998541771</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="Y14" t="n">
-        <v>206.0658998541771</v>
+        <v>206.0658998541769</v>
       </c>
     </row>
     <row r="15">
@@ -28412,10 +28412,10 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0334337071738</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>183.6064959336765</v>
       </c>
       <c r="G15" t="n">
         <v>135.7425175181424</v>
@@ -28451,22 +28451,22 @@
         <v>100.6520544727516</v>
       </c>
       <c r="R15" t="n">
-        <v>172.4246481118111</v>
+        <v>124.6099476115524</v>
       </c>
       <c r="S15" t="n">
-        <v>206.0658998541771</v>
+        <v>163.747870357306</v>
       </c>
       <c r="T15" t="n">
         <v>197.2511434027379</v>
       </c>
       <c r="U15" t="n">
-        <v>206.0658998541771</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="V15" t="n">
-        <v>206.0658998541771</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="W15" t="n">
-        <v>206.0658998541771</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -28500,10 +28500,10 @@
         <v>167.6542656104896</v>
       </c>
       <c r="H16" t="n">
-        <v>159.5418337672185</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="I16" t="n">
-        <v>206.0658998541771</v>
+        <v>168.9998580626874</v>
       </c>
       <c r="J16" t="n">
         <v>107.1831772063886</v>
@@ -28512,10 +28512,10 @@
         <v>98.44763558242229</v>
       </c>
       <c r="L16" t="n">
-        <v>96.52639965566443</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="M16" t="n">
-        <v>164.9873239638613</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>88.4825200432665</v>
@@ -28524,34 +28524,34 @@
         <v>101.7332434139352</v>
       </c>
       <c r="P16" t="n">
-        <v>74.9781695293655</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="Q16" t="n">
-        <v>128.0122575250251</v>
+        <v>114.2033052856322</v>
       </c>
       <c r="R16" t="n">
-        <v>206.0658998541771</v>
+        <v>162.8101554985757</v>
       </c>
       <c r="S16" t="n">
-        <v>206.0658998541771</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="T16" t="n">
-        <v>206.0658998541771</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="U16" t="n">
-        <v>206.0658998541771</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="V16" t="n">
-        <v>206.0658998541771</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="W16" t="n">
-        <v>206.0658998541771</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="X16" t="n">
-        <v>206.0658998541771</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="Y16" t="n">
-        <v>206.0658998541771</v>
+        <v>206.0658998541769</v>
       </c>
     </row>
     <row r="17">
@@ -28561,34 +28561,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>332.7712107698044</v>
+        <v>332.7712107698043</v>
       </c>
       <c r="C17" t="n">
-        <v>332.7712107698044</v>
+        <v>332.7712107698043</v>
       </c>
       <c r="D17" t="n">
-        <v>332.7712107698044</v>
+        <v>332.7712107698043</v>
       </c>
       <c r="E17" t="n">
-        <v>332.7712107698044</v>
+        <v>332.7712107698043</v>
       </c>
       <c r="F17" t="n">
-        <v>332.7712107698044</v>
+        <v>332.7712107698043</v>
       </c>
       <c r="G17" t="n">
-        <v>332.7712107698044</v>
+        <v>332.7712107698043</v>
       </c>
       <c r="H17" t="n">
-        <v>332.7712107698044</v>
+        <v>332.7712107698043</v>
       </c>
       <c r="I17" t="n">
-        <v>184.9991661941195</v>
+        <v>294.5606434785647</v>
       </c>
       <c r="J17" t="n">
         <v>131.993886524983</v>
       </c>
       <c r="K17" t="n">
-        <v>147.8548671976311</v>
+        <v>257.4163444820763</v>
       </c>
       <c r="L17" t="n">
         <v>147.0843927263266</v>
@@ -28597,40 +28597,40 @@
         <v>132.4701295536354</v>
       </c>
       <c r="N17" t="n">
-        <v>130.0697325517949</v>
+        <v>235.204483481313</v>
       </c>
       <c r="O17" t="n">
         <v>135.9543719398946</v>
       </c>
       <c r="P17" t="n">
-        <v>259.5736467412821</v>
+        <v>259.5736467412823</v>
       </c>
       <c r="Q17" t="n">
         <v>160.0957483487178</v>
       </c>
       <c r="R17" t="n">
-        <v>286.8031569351851</v>
+        <v>177.2416796507401</v>
       </c>
       <c r="S17" t="n">
-        <v>303.4718108665828</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="T17" t="n">
-        <v>240.2299693544971</v>
+        <v>220.6686239034314</v>
       </c>
       <c r="U17" t="n">
-        <v>332.7712107698044</v>
+        <v>251.4357945386371</v>
       </c>
       <c r="V17" t="n">
-        <v>332.7712107698044</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>332.7712107698044</v>
+        <v>332.7712107698043</v>
       </c>
       <c r="X17" t="n">
-        <v>332.7712107698044</v>
+        <v>332.7712107698043</v>
       </c>
       <c r="Y17" t="n">
-        <v>332.7712107698044</v>
+        <v>332.7712107698043</v>
       </c>
     </row>
     <row r="18">
@@ -28798,37 +28798,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>332.7712107698044</v>
+        <v>332.7712107698043</v>
       </c>
       <c r="C20" t="n">
-        <v>332.7712107698044</v>
+        <v>332.7712107698043</v>
       </c>
       <c r="D20" t="n">
-        <v>332.7712107698044</v>
+        <v>332.7712107698043</v>
       </c>
       <c r="E20" t="n">
-        <v>332.7712107698044</v>
+        <v>332.7712107698043</v>
       </c>
       <c r="F20" t="n">
-        <v>332.7712107698044</v>
+        <v>332.7712107698043</v>
       </c>
       <c r="G20" t="n">
-        <v>332.7712107698044</v>
+        <v>332.7712107698043</v>
       </c>
       <c r="H20" t="n">
-        <v>332.7712107698044</v>
+        <v>332.7712107698043</v>
       </c>
       <c r="I20" t="n">
-        <v>294.5606434785645</v>
+        <v>184.9991661941195</v>
       </c>
       <c r="J20" t="n">
-        <v>241.5553638094279</v>
+        <v>131.993886524983</v>
       </c>
       <c r="K20" t="n">
-        <v>257.4163444820761</v>
+        <v>257.4163444820763</v>
       </c>
       <c r="L20" t="n">
-        <v>247.9811544085595</v>
+        <v>147.0843927263266</v>
       </c>
       <c r="M20" t="n">
         <v>132.4701295536354</v>
@@ -28846,28 +28846,28 @@
         <v>160.0957483487178</v>
       </c>
       <c r="R20" t="n">
-        <v>177.2416796507401</v>
+        <v>286.8031569351854</v>
       </c>
       <c r="S20" t="n">
-        <v>193.9103335821378</v>
+        <v>213.4716790332038</v>
       </c>
       <c r="T20" t="n">
-        <v>220.6686239034314</v>
+        <v>330.2301011878767</v>
       </c>
       <c r="U20" t="n">
-        <v>251.4357945386371</v>
+        <v>332.7712107698043</v>
       </c>
       <c r="V20" t="n">
-        <v>332.7712107698044</v>
+        <v>332.7712107698043</v>
       </c>
       <c r="W20" t="n">
-        <v>332.7712107698044</v>
+        <v>332.7712107698043</v>
       </c>
       <c r="X20" t="n">
-        <v>332.7712107698044</v>
+        <v>332.7712107698043</v>
       </c>
       <c r="Y20" t="n">
-        <v>332.7712107698044</v>
+        <v>332.7712107698043</v>
       </c>
     </row>
     <row r="21">
@@ -29065,7 +29065,7 @@
         <v>147.8548671976311</v>
       </c>
       <c r="L23" t="n">
-        <v>256.6458700107715</v>
+        <v>256.6458700107717</v>
       </c>
       <c r="M23" t="n">
         <v>132.4701295536354</v>
@@ -29077,25 +29077,25 @@
         <v>135.9543719398946</v>
       </c>
       <c r="P23" t="n">
-        <v>150.0121694568371</v>
+        <v>255.1469203863552</v>
       </c>
       <c r="Q23" t="n">
         <v>160.0957483487178</v>
       </c>
       <c r="R23" t="n">
-        <v>196.8030251018058</v>
+        <v>177.2416796507401</v>
       </c>
       <c r="S23" t="n">
-        <v>303.4718108665828</v>
+        <v>303.471810866583</v>
       </c>
       <c r="T23" t="n">
-        <v>330.2301011878765</v>
+        <v>330.2301011878766</v>
       </c>
       <c r="U23" t="n">
-        <v>332.7712107698044</v>
+        <v>251.4357945386371</v>
       </c>
       <c r="V23" t="n">
-        <v>332.7712107698044</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
         <v>332.7712107698044</v>
@@ -29299,25 +29299,25 @@
         <v>164.9705103532384</v>
       </c>
       <c r="K26" t="n">
-        <v>164.9705103532384</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>164.9705103532384</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>164.9705103532384</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>106.1875169312017</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>164.9705103532384</v>
       </c>
       <c r="P26" t="n">
         <v>164.9705103532384</v>
       </c>
       <c r="Q26" t="n">
-        <v>64.6535048109579</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>164.9705103532384</v>
@@ -29357,52 +29357,52 @@
         <v>164.9705103532384</v>
       </c>
       <c r="D27" t="n">
-        <v>164.9705103532384</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>164.9705103532384</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>164.9705103532384</v>
+        <v>135.7425175181424</v>
       </c>
       <c r="H27" t="n">
         <v>164.9705103532384</v>
       </c>
       <c r="I27" t="n">
+        <v>87.37012053436683</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>67.45955797656308</v>
+      </c>
+      <c r="N27" t="n">
+        <v>55.0546796300295</v>
+      </c>
+      <c r="O27" t="n">
+        <v>72.24740769184261</v>
+      </c>
+      <c r="P27" t="n">
+        <v>77.02505511384632</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>84.87844667840415</v>
+      </c>
+      <c r="R27" t="n">
+        <v>77.26741100777872</v>
+      </c>
+      <c r="S27" t="n">
         <v>164.9705103532384</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>163.6050201999191</v>
-      </c>
-      <c r="S27" t="n">
-        <v>163.747870357306</v>
       </c>
       <c r="T27" t="n">
         <v>164.9705103532384</v>
@@ -29442,7 +29442,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
-        <v>146.1590214098045</v>
+        <v>148.897267769616</v>
       </c>
       <c r="G28" t="n">
         <v>164.9705103532384</v>
@@ -29460,13 +29460,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>164.9705103532384</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>123.070177287072</v>
+        <v>164.9705103532384</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -29475,10 +29475,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
+        <v>142.8264581858498</v>
+      </c>
+      <c r="R28" t="n">
         <v>164.9705103532384</v>
-      </c>
-      <c r="R28" t="n">
-        <v>162.8101554985757</v>
       </c>
       <c r="S28" t="n">
         <v>164.9705103532384</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="C29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="D29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="E29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="F29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="G29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="H29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="I29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="J29" t="n">
-        <v>121.4204287138328</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="K29" t="n">
-        <v>164.9705103532384</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>164.9705103532384</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="N29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>164.9705103532384</v>
+        <v>120.6152323933867</v>
       </c>
       <c r="R29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="S29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="T29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="U29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="V29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="W29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="X29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="Y29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
     </row>
     <row r="30">
@@ -29588,10 +29588,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="C30" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="D30" t="n">
         <v>146.1124235746456</v>
@@ -29609,10 +29609,10 @@
         <v>107.751615098652</v>
       </c>
       <c r="I30" t="n">
-        <v>76.83934349983851</v>
+        <v>87.37012053436683</v>
       </c>
       <c r="J30" t="n">
-        <v>115.2638722974651</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29621,7 +29621,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>67.45955797656308</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -29630,34 +29630,34 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>77.02505511384632</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="R30" t="n">
-        <v>77.26741100777872</v>
+        <v>124.6099476115524</v>
       </c>
       <c r="S30" t="n">
         <v>163.747870357306</v>
       </c>
       <c r="T30" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="U30" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="V30" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="W30" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="X30" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="Y30" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="C31" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="D31" t="n">
-        <v>149.0055665145194</v>
+        <v>151.743812874331</v>
       </c>
       <c r="E31" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
-        <v>164.9705103532384</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="H31" t="n">
         <v>159.5418337672185</v>
       </c>
       <c r="I31" t="n">
-        <v>164.9705103532384</v>
+        <v>146.6817327856059</v>
       </c>
       <c r="J31" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="K31" t="n">
-        <v>133.4782662076585</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.9705103532384</v>
+        <v>107.3784720207951</v>
       </c>
       <c r="R31" t="n">
         <v>162.8101554985757</v>
       </c>
       <c r="S31" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="T31" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="U31" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="V31" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="W31" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="X31" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="Y31" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
     </row>
     <row r="32">
@@ -29770,10 +29770,10 @@
         <v>164.9705103532383</v>
       </c>
       <c r="J32" t="n">
-        <v>164.9705103532383</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>164.9705103532383</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>164.9705103532383</v>
@@ -29785,16 +29785,16 @@
         <v>164.9705103532383</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>106.1875169312019</v>
       </c>
       <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
         <v>164.9705103532383</v>
-      </c>
-      <c r="R32" t="n">
-        <v>108.8966029828384</v>
       </c>
       <c r="S32" t="n">
         <v>164.9705103532383</v>
@@ -29846,7 +29846,7 @@
         <v>107.751615098652</v>
       </c>
       <c r="I33" t="n">
-        <v>76.83934349983851</v>
+        <v>87.37012053436683</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29861,10 +29861,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>55.0546796300295</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>142.8427067333128</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>77.26741100777872</v>
+        <v>124.6099476115524</v>
       </c>
       <c r="S33" t="n">
         <v>163.747870357306</v>
@@ -29910,7 +29910,7 @@
         <v>164.9705103532383</v>
       </c>
       <c r="D34" t="n">
-        <v>149.0055665145194</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="E34" t="n">
         <v>146.9746241731992</v>
@@ -29931,7 +29931,7 @@
         <v>107.1831772063886</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29940,19 +29940,19 @@
         <v>164.9705103532383</v>
       </c>
       <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>101.7332434139352</v>
+      </c>
+      <c r="P34" t="n">
         <v>164.9705103532383</v>
       </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>143.5950415590733</v>
-      </c>
       <c r="Q34" t="n">
+        <v>128.0122575250251</v>
+      </c>
+      <c r="R34" t="n">
         <v>164.9705103532383</v>
-      </c>
-      <c r="R34" t="n">
-        <v>162.8101554985757</v>
       </c>
       <c r="S34" t="n">
         <v>164.9705103532383</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="C35" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="D35" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="E35" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="F35" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="G35" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="H35" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="I35" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="J35" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="K35" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="L35" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>193.9103335821378</v>
+        <v>149.8010365523965</v>
       </c>
       <c r="O35" t="n">
-        <v>193.9103335821378</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>193.9103335821378</v>
+        <v>177.2416796507401</v>
       </c>
       <c r="S35" t="n">
         <v>193.9103335821378</v>
       </c>
       <c r="T35" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="U35" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="V35" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="W35" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="X35" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="Y35" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
     </row>
     <row r="36">
@@ -30083,31 +30083,31 @@
         <v>107.751615098652</v>
       </c>
       <c r="I36" t="n">
-        <v>193.9103335821378</v>
+        <v>87.37012053436683</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>89.06968960704256</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>67.45955797656308</v>
       </c>
       <c r="N36" t="n">
-        <v>88.13331358210063</v>
+        <v>55.0546796300295</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>130.4621529368005</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>77.02505511384632</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="R36" t="n">
         <v>124.6099476115524</v>
@@ -30116,22 +30116,22 @@
         <v>163.747870357306</v>
       </c>
       <c r="T36" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="U36" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="V36" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="W36" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="X36" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="Y36" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
     </row>
     <row r="37">
@@ -30165,52 +30165,52 @@
         <v>146.6817327856059</v>
       </c>
       <c r="J37" t="n">
-        <v>107.1831772063886</v>
+        <v>72.20148623075632</v>
       </c>
       <c r="K37" t="n">
-        <v>193.9103335821378</v>
+        <v>98.44763558242229</v>
       </c>
       <c r="L37" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="M37" t="n">
         <v>98.56463934727405</v>
       </c>
       <c r="N37" t="n">
-        <v>88.4825200432665</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>101.7332434139352</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>96.94545455470897</v>
       </c>
       <c r="Q37" t="n">
-        <v>128.0122575250251</v>
+        <v>60.05558081216354</v>
       </c>
       <c r="R37" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="S37" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="T37" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="U37" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="V37" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="W37" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="X37" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="Y37" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
     </row>
     <row r="38">
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="C38" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="D38" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="E38" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="F38" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="G38" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="H38" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="I38" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="J38" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="K38" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="L38" t="n">
-        <v>193.9103335821378</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>127.2745318125526</v>
       </c>
       <c r="N38" t="n">
-        <v>193.9103335821378</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>193.9103335821378</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="R38" t="n">
-        <v>193.9103335821378</v>
+        <v>177.2416796507401</v>
       </c>
       <c r="S38" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="T38" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="U38" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="V38" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="W38" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="X38" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="Y38" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
     </row>
     <row r="39">
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>193.9103335821378</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
         <v>171.025583927401</v>
@@ -30311,7 +30311,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>159.9008354183306</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
         <v>135.7425175181424</v>
@@ -30320,16 +30320,16 @@
         <v>107.751615098652</v>
       </c>
       <c r="I39" t="n">
-        <v>193.9103335821378</v>
+        <v>76.83934349983851</v>
       </c>
       <c r="J39" t="n">
-        <v>81.67904814101499</v>
+        <v>97.1473826293371</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>89.06968960704256</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>74.1445050880946</v>
       </c>
       <c r="M39" t="n">
         <v>67.45955797656308</v>
@@ -30341,10 +30341,10 @@
         <v>72.24740769184261</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>135.2398003588047</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="R39" t="n">
         <v>124.6099476115524</v>
@@ -30353,22 +30353,22 @@
         <v>163.747870357306</v>
       </c>
       <c r="T39" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="U39" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="V39" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="W39" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="X39" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="Y39" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
     </row>
     <row r="40">
@@ -30381,7 +30381,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>167.3365529312023</v>
+        <v>173.1405847348365</v>
       </c>
       <c r="D40" t="n">
         <v>149.0055665145194</v>
@@ -30393,22 +30393,22 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.6542656104896</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="H40" t="n">
         <v>159.5418337672185</v>
       </c>
       <c r="I40" t="n">
-        <v>146.6817327856059</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="J40" t="n">
-        <v>107.1831772063886</v>
+        <v>72.20148623075632</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>96.52639965566443</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30417,37 +30417,37 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>193.9103335821378</v>
+        <v>101.7332434139352</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.0122575250251</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="R40" t="n">
         <v>162.8101554985757</v>
       </c>
       <c r="S40" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="T40" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="U40" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="V40" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="W40" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="X40" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
       <c r="Y40" t="n">
-        <v>193.9103335821378</v>
+        <v>193.9103335821379</v>
       </c>
     </row>
     <row r="41">
@@ -30481,7 +30481,7 @@
         <v>193.9103335821378</v>
       </c>
       <c r="J41" t="n">
-        <v>193.9103335821378</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>193.9103335821378</v>
@@ -30490,22 +30490,22 @@
         <v>193.9103335821378</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>193.9103335821378</v>
       </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
       <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>193.9103335821378</v>
       </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="R41" t="n">
-        <v>193.9103335821378</v>
+        <v>115.2332794289721</v>
       </c>
       <c r="S41" t="n">
         <v>193.9103335821378</v>
@@ -30557,7 +30557,7 @@
         <v>107.751615098652</v>
       </c>
       <c r="I42" t="n">
-        <v>193.9103335821378</v>
+        <v>76.83934349983851</v>
       </c>
       <c r="J42" t="n">
         <v>97.1473826293371</v>
@@ -30566,7 +30566,7 @@
         <v>89.06968960704256</v>
       </c>
       <c r="L42" t="n">
-        <v>74.1445050880946</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="M42" t="n">
         <v>67.45955797656308</v>
@@ -30575,19 +30575,19 @@
         <v>55.0546796300295</v>
       </c>
       <c r="O42" t="n">
-        <v>72.24740769184261</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>25.88450406687119</v>
+        <v>77.02505511384632</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>102.1967871082213</v>
       </c>
       <c r="R42" t="n">
-        <v>169.5427589181264</v>
+        <v>124.6099476115524</v>
       </c>
       <c r="S42" t="n">
-        <v>163.747870357306</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="T42" t="n">
         <v>193.9103335821378</v>
@@ -30624,19 +30624,19 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
+        <v>146.9746241731992</v>
+      </c>
+      <c r="F43" t="n">
+        <v>146.1590214098045</v>
+      </c>
+      <c r="G43" t="n">
         <v>193.9103335821378</v>
-      </c>
-      <c r="F43" t="n">
-        <v>193.9103335821378</v>
-      </c>
-      <c r="G43" t="n">
-        <v>167.6542656104896</v>
       </c>
       <c r="H43" t="n">
         <v>159.5418337672185</v>
       </c>
       <c r="I43" t="n">
-        <v>146.6817327856059</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="J43" t="n">
         <v>107.1831772063886</v>
@@ -30645,25 +30645,25 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="M43" t="n">
-        <v>98.56463934727405</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>88.4825200432665</v>
       </c>
       <c r="O43" t="n">
+        <v>101.7332434139352</v>
+      </c>
+      <c r="P43" t="n">
         <v>193.9103335821378</v>
       </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
       <c r="Q43" t="n">
-        <v>128.0122575250251</v>
+        <v>60.05558081216354</v>
       </c>
       <c r="R43" t="n">
-        <v>162.8101554985757</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="S43" t="n">
         <v>193.9103335821378</v>
@@ -30718,25 +30718,25 @@
         <v>184.9991661941195</v>
       </c>
       <c r="J44" t="n">
-        <v>143.1217919274449</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="K44" t="n">
-        <v>193.9103335821378</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>193.9103335821378</v>
+        <v>85.51544069721601</v>
       </c>
       <c r="M44" t="n">
-        <v>193.9103335821378</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>193.9103335821378</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="P44" t="n">
-        <v>193.9103335821378</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>193.9103335821378</v>
@@ -30797,34 +30797,34 @@
         <v>76.83934349983849</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>98.69211526480679</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>89.06968960704252</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>67.45955797656302</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>55.05467963002944</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>72.24740769184255</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>77.02505511384626</v>
       </c>
       <c r="Q45" t="n">
+        <v>100.6520544727515</v>
+      </c>
+      <c r="R45" t="n">
+        <v>124.6099476115524</v>
+      </c>
+      <c r="S45" t="n">
         <v>193.9103335821378</v>
-      </c>
-      <c r="R45" t="n">
-        <v>77.2674110077787</v>
-      </c>
-      <c r="S45" t="n">
-        <v>163.747870357306</v>
       </c>
       <c r="T45" t="n">
         <v>193.9103335821378</v>
@@ -30861,7 +30861,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
-        <v>146.9746241731992</v>
+        <v>191.7445805264754</v>
       </c>
       <c r="F46" t="n">
         <v>146.1590214098045</v>
@@ -30876,28 +30876,28 @@
         <v>146.6817327856059</v>
       </c>
       <c r="J46" t="n">
-        <v>139.8332639735293</v>
+        <v>72.2014862307563</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>98.44763558242227</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>98.56463934727401</v>
       </c>
       <c r="N46" t="n">
+        <v>88.48252004326648</v>
+      </c>
+      <c r="O46" t="n">
         <v>193.9103335821378</v>
       </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
       <c r="P46" t="n">
-        <v>105.8235180915232</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="Q46" t="n">
-        <v>60.05558081216351</v>
+        <v>60.05558081216353</v>
       </c>
       <c r="R46" t="n">
         <v>162.8101554985757</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5246129738409836</v>
+        <v>0.5246129738409833</v>
       </c>
       <c r="H44" t="n">
-        <v>5.372692618348974</v>
+        <v>5.372692618348971</v>
       </c>
       <c r="I44" t="n">
-        <v>20.22514167400454</v>
+        <v>20.22514167400453</v>
       </c>
       <c r="J44" t="n">
-        <v>44.52587038853622</v>
+        <v>44.52587038853619</v>
       </c>
       <c r="K44" t="n">
-        <v>66.73273757122507</v>
+        <v>66.73273757122503</v>
       </c>
       <c r="L44" t="n">
-        <v>82.78786186941109</v>
+        <v>82.78786186941103</v>
       </c>
       <c r="M44" t="n">
-        <v>92.11744784295568</v>
+        <v>92.11744784295561</v>
       </c>
       <c r="N44" t="n">
-        <v>93.60800445488138</v>
+        <v>93.60800445488132</v>
       </c>
       <c r="O44" t="n">
-        <v>88.39138419625009</v>
+        <v>88.39138419625003</v>
       </c>
       <c r="P44" t="n">
-        <v>75.4400014045508</v>
+        <v>75.44000140455076</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.65229927887056</v>
+        <v>56.65229927887052</v>
       </c>
       <c r="R44" t="n">
-        <v>32.95421971803871</v>
+        <v>32.95421971803869</v>
       </c>
       <c r="S44" t="n">
-        <v>11.95461814140143</v>
+        <v>11.95461814140142</v>
       </c>
       <c r="T44" t="n">
-        <v>2.296493292988907</v>
+        <v>2.296493292988905</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04196903790727868</v>
+        <v>0.04196903790727865</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2806926868999189</v>
+        <v>0.2806926868999188</v>
       </c>
       <c r="H45" t="n">
-        <v>2.710900423480797</v>
+        <v>2.710900423480795</v>
       </c>
       <c r="I45" t="n">
-        <v>9.664199965633175</v>
+        <v>9.66419996563317</v>
       </c>
       <c r="J45" t="n">
-        <v>26.51930337066296</v>
+        <v>26.51930337066294</v>
       </c>
       <c r="K45" t="n">
-        <v>45.32571339295752</v>
+        <v>45.3257133929575</v>
       </c>
       <c r="L45" t="n">
-        <v>60.94601519728285</v>
+        <v>60.9460151972828</v>
       </c>
       <c r="M45" t="n">
-        <v>71.12112509740489</v>
+        <v>71.12112509740484</v>
       </c>
       <c r="N45" t="n">
-        <v>73.00348965122059</v>
+        <v>73.00348965122053</v>
       </c>
       <c r="O45" t="n">
-        <v>66.7839306414908</v>
+        <v>66.78393064149076</v>
       </c>
       <c r="P45" t="n">
-        <v>53.59999211512575</v>
+        <v>53.59999211512572</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.83017526111948</v>
+        <v>35.83017526111946</v>
       </c>
       <c r="R45" t="n">
-        <v>17.42756875331252</v>
+        <v>17.42756875331251</v>
       </c>
       <c r="S45" t="n">
-        <v>5.213743548338403</v>
+        <v>5.2137435483384</v>
       </c>
       <c r="T45" t="n">
-        <v>1.131388505530813</v>
+        <v>1.131388505530812</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01846662413815257</v>
+        <v>0.01846662413815256</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.235323319618425</v>
+        <v>0.2353233196184248</v>
       </c>
       <c r="H46" t="n">
-        <v>2.092238241698362</v>
+        <v>2.09223824169836</v>
       </c>
       <c r="I46" t="n">
-        <v>7.076814011797728</v>
+        <v>7.076814011797723</v>
       </c>
       <c r="J46" t="n">
-        <v>16.63735869702264</v>
+        <v>16.63735869702263</v>
       </c>
       <c r="K46" t="n">
-        <v>27.34029113384973</v>
+        <v>27.34029113384971</v>
       </c>
       <c r="L46" t="n">
-        <v>34.98615971854293</v>
+        <v>34.98615971854291</v>
       </c>
       <c r="M46" t="n">
-        <v>36.88800000164092</v>
+        <v>36.8880000016409</v>
       </c>
       <c r="N46" t="n">
-        <v>36.01088581033591</v>
+        <v>36.01088581033589</v>
       </c>
       <c r="O46" t="n">
-        <v>33.26188157661157</v>
+        <v>33.26188157661155</v>
       </c>
       <c r="P46" t="n">
-        <v>28.46128585639568</v>
+        <v>28.46128585639566</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.70511906368466</v>
+        <v>19.70511906368464</v>
       </c>
       <c r="R46" t="n">
         <v>10.58099217120663</v>
       </c>
       <c r="S46" t="n">
-        <v>4.101043670077459</v>
+        <v>4.101043670077456</v>
       </c>
       <c r="T46" t="n">
-        <v>1.005472365642361</v>
+        <v>1.00547236564236</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01283581743373229</v>
+        <v>0.01283581743373228</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>21.06673366005754</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>74.07201332919388</v>
       </c>
       <c r="K11" t="n">
-        <v>106.2219091300992</v>
+        <v>58.21103265654578</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>83.03446687339456</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>73.59577030054147</v>
       </c>
       <c r="N11" t="n">
-        <v>75.99616730238213</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>19.28126699280972</v>
+        <v>70.11152791428225</v>
       </c>
       <c r="P11" t="n">
-        <v>109.561477284445</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.71184193758309</v>
+        <v>45.97015150545907</v>
       </c>
       <c r="R11" t="n">
-        <v>28.8242202034369</v>
+        <v>28.8242202034367</v>
       </c>
       <c r="S11" t="n">
-        <v>12.15556627203922</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>90.13272999712999</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>90.1327299971306</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,19 +35571,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>66.79015637806225</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>107.5012605069028</v>
       </c>
       <c r="N13" t="n">
-        <v>109.561477284445</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>68.82021427810656</v>
+        <v>104.3326564402417</v>
       </c>
       <c r="P13" t="n">
-        <v>100.2423817626538</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35641,28 +35641,28 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>21.0667336600576</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>105.4777609794838</v>
+        <v>74.07201332919396</v>
       </c>
       <c r="K14" t="n">
-        <v>109.561477284445</v>
+        <v>58.21103265654587</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>109.5614772844452</v>
       </c>
       <c r="M14" t="n">
-        <v>109.561477284445</v>
+        <v>14.2038855588446</v>
       </c>
       <c r="N14" t="n">
-        <v>75.99616730238219</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>109.5614772844452</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>56.05373039733982</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35671,7 +35671,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>12.15556627203928</v>
+        <v>12.15556627203911</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35708,10 +35708,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>50.03246614700311</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>40.10026385012722</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -35747,10 +35747,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>47.8147005002587</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>42.31802949687111</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -35796,10 +35796,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>46.52406608695846</v>
       </c>
       <c r="I16" t="n">
-        <v>59.38416706857119</v>
+        <v>22.31812527708152</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -35808,10 +35808,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>109.5395001985125</v>
       </c>
       <c r="M16" t="n">
-        <v>66.42268461658729</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -35820,13 +35820,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>109.561477284445</v>
+        <v>100.2423817626537</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>43.25574435560142</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35878,13 +35878,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>109.5614772844452</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>109.5614772844452</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35893,31 +35893,31 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>105.1347509295181</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>109.561477284445</v>
+        <v>109.5614772844452</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>109.561477284445</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.561477284445</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>19.56134545106564</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>81.33541623116724</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>4.237989247285043</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36115,16 +36115,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>109.561477284445</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>109.561477284445</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>109.561477284445</v>
+        <v>109.5614772844452</v>
       </c>
       <c r="L20" t="n">
-        <v>100.8967616822329</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36142,19 +36142,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>109.5614772844452</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>19.56134545106599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>109.5614772844452</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>81.33541623116719</v>
       </c>
       <c r="V20" t="n">
-        <v>4.237989247285043</v>
+        <v>4.237989247284986</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>109.561477284445</v>
+        <v>109.5614772844451</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36373,25 +36373,25 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>105.1347509295181</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>19.56134545106568</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.561477284445</v>
+        <v>109.5614772844451</v>
       </c>
       <c r="T23" t="n">
-        <v>109.561477284445</v>
+        <v>109.5614772844451</v>
       </c>
       <c r="U23" t="n">
-        <v>81.33541623116724</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>4.237989247285043</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36595,25 +36595,25 @@
         <v>208.8371036072121</v>
       </c>
       <c r="K26" t="n">
-        <v>354.2268722296187</v>
+        <v>189.2563618763803</v>
       </c>
       <c r="L26" t="n">
-        <v>452.2537807593802</v>
+        <v>287.2832704061418</v>
       </c>
       <c r="M26" t="n">
         <v>499.9944556321488</v>
       </c>
       <c r="N26" t="n">
-        <v>324.7710688366686</v>
+        <v>430.9585857678703</v>
       </c>
       <c r="O26" t="n">
-        <v>260.0778165733606</v>
+        <v>425.048326926599</v>
       </c>
       <c r="P26" t="n">
         <v>349.6289973947432</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.928848515546744</v>
+        <v>60.71184193758309</v>
       </c>
       <c r="R26" t="n">
         <v>56.07390737039994</v>
@@ -36653,31 +36653,31 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>18.85808677859279</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>21.46427826968906</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>29.22799283509595</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>57.21889525458637</v>
       </c>
       <c r="I27" t="n">
-        <v>88.13116685339985</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>33.98729412468807</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>185.9741568860392</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>90.80963117163446</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36695,10 +36695,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.33760919214036</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.222639995932364</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -36738,7 +36738,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2.738246359811533</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36756,25 +36756,25 @@
         <v>12.56588141601634</v>
       </c>
       <c r="L28" t="n">
-        <v>72.44728994755216</v>
+        <v>237.4178003007905</v>
       </c>
       <c r="M28" t="n">
-        <v>87.08540799854943</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>213.2780827620458</v>
+        <v>255.1784158282121</v>
       </c>
       <c r="O28" t="n">
         <v>67.83008960658259</v>
       </c>
       <c r="P28" t="n">
-        <v>34.58330775507947</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>104.9149295410748</v>
+        <v>14.81420066082475</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>2.160354854662671</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>165.2870219678065</v>
+        <v>208.837103607212</v>
       </c>
       <c r="K29" t="n">
-        <v>230.0973574641492</v>
+        <v>189.2563618763803</v>
       </c>
       <c r="L29" t="n">
-        <v>452.2537807593802</v>
+        <v>272.8555549439569</v>
       </c>
       <c r="M29" t="n">
-        <v>499.9944556321488</v>
+        <v>499.9944556321487</v>
       </c>
       <c r="N29" t="n">
-        <v>489.7415791899069</v>
+        <v>489.7415791899068</v>
       </c>
       <c r="O29" t="n">
-        <v>260.0778165733606</v>
+        <v>425.0483269265989</v>
       </c>
       <c r="P29" t="n">
         <v>184.6584870415048</v>
       </c>
       <c r="Q29" t="n">
-        <v>225.6823522908214</v>
+        <v>181.3270743309698</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.07390737039986</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>149.2511664221532</v>
+        <v>33.98729412468807</v>
       </c>
       <c r="K30" t="n">
-        <v>185.9741568860392</v>
+        <v>18.4391940577352</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>282.7988351257698</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>2.738246359811619</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>18.81148894343386</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,31 +36984,31 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>18.28877756763244</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.76902412248204</v>
+        <v>57.78733314684969</v>
       </c>
       <c r="K31" t="n">
-        <v>146.0441476236749</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>87.08540799854943</v>
+        <v>252.0559183517877</v>
       </c>
       <c r="N31" t="n">
-        <v>90.20790547497376</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>232.8005999598209</v>
       </c>
       <c r="P31" t="n">
-        <v>34.58330775507947</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>104.9149295410748</v>
+        <v>47.32289120863157</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>41.15750720233788</v>
+        <v>43.86659325397374</v>
       </c>
       <c r="K32" t="n">
-        <v>354.2268722296186</v>
+        <v>189.2563618763803</v>
       </c>
       <c r="L32" t="n">
-        <v>452.25378075938</v>
+        <v>452.2537807593802</v>
       </c>
       <c r="M32" t="n">
-        <v>499.9944556321487</v>
+        <v>499.9944556321488</v>
       </c>
       <c r="N32" t="n">
-        <v>489.7415791899068</v>
+        <v>489.7415791899069</v>
       </c>
       <c r="O32" t="n">
-        <v>260.0778165733606</v>
+        <v>425.0483269265989</v>
       </c>
       <c r="P32" t="n">
-        <v>184.6584870415048</v>
+        <v>290.8460039727067</v>
       </c>
       <c r="Q32" t="n">
-        <v>225.6823522908214</v>
+        <v>60.71184193758309</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>56.07390737039992</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>146.8016994941909</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37160,13 +37160,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>335.225323308193</v>
+        <v>70.5952990414702</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>117.8283247725315</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37206,7 +37206,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>15.96494383871897</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -37227,28 +37227,28 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>177.5363917692547</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>40.87570397500888</v>
       </c>
       <c r="M34" t="n">
-        <v>252.0559183517877</v>
+        <v>66.40587100596427</v>
       </c>
       <c r="N34" t="n">
-        <v>125.5124685327478</v>
+        <v>90.20790547497376</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>178.1783493141527</v>
+        <v>199.5538181083178</v>
       </c>
       <c r="Q34" t="n">
-        <v>36.9582528282132</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>2.160354854662643</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>8.911167388018331</v>
+        <v>8.911167388018416</v>
       </c>
       <c r="J35" t="n">
-        <v>237.7769268361116</v>
+        <v>89.57074251044163</v>
       </c>
       <c r="K35" t="n">
-        <v>383.1666954585181</v>
+        <v>46.05546638450686</v>
       </c>
       <c r="L35" t="n">
-        <v>46.82594085581124</v>
+        <v>481.1936039882797</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>335.0239452789104</v>
       </c>
       <c r="N35" t="n">
-        <v>479.7222362193257</v>
+        <v>474.5721053890651</v>
       </c>
       <c r="O35" t="n">
-        <v>453.9881501554984</v>
+        <v>260.0778165733606</v>
       </c>
       <c r="P35" t="n">
-        <v>378.5688206236426</v>
+        <v>378.5688206236428</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>85.01373059929944</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>106.540213047771</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>11.85417735450268</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>33.07863395207113</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>58.21474524495795</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>93.25827910938636</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,28 +37464,28 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>95.46269799971554</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>238.8778117754185</v>
+        <v>97.38393392647349</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>105.4278135388714</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>131.5287623097884</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>31.10017808356216</v>
+        <v>31.10017808356224</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>8.911167388018274</v>
+        <v>8.91116738801836</v>
       </c>
       <c r="J38" t="n">
-        <v>61.91644705715481</v>
+        <v>237.7769268361116</v>
       </c>
       <c r="K38" t="n">
-        <v>46.05546638450672</v>
+        <v>119.7417614344582</v>
       </c>
       <c r="L38" t="n">
-        <v>481.1936039882796</v>
+        <v>287.2832704061418</v>
       </c>
       <c r="M38" t="n">
-        <v>335.0239452789104</v>
+        <v>462.2984770914631</v>
       </c>
       <c r="N38" t="n">
-        <v>518.6814024188063</v>
+        <v>324.7710688366686</v>
       </c>
       <c r="O38" t="n">
-        <v>97.89724246002405</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>378.5688206236426</v>
+        <v>378.5688206236427</v>
       </c>
       <c r="Q38" t="n">
-        <v>60.71184193758309</v>
+        <v>254.6221755197209</v>
       </c>
       <c r="R38" t="n">
-        <v>85.01373059929938</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37595,7 +37595,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>28.53820797179296</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -37607,7 +37607,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>16.39460333478127</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>106.5402130477709</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37637,10 +37637,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>58.21474524495834</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>93.25827910938631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37677,7 +37677,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>5.804031803634168</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -37689,19 +37689,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>26.25606797164823</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>47.22860079653196</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>12.56588141601634</v>
+        <v>95.46269799971557</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37713,13 +37713,13 @@
         <v>90.20790547497376</v>
       </c>
       <c r="O40" t="n">
-        <v>261.7404231887203</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.9264777789861349</v>
+        <v>34.58330775507947</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.8980760571128</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>8.911167388018303</v>
+        <v>8.911167388018331</v>
       </c>
       <c r="J41" t="n">
-        <v>237.7769268361116</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>166.9925126079499</v>
+        <v>90.63587647271309</v>
       </c>
       <c r="L41" t="n">
-        <v>481.1936039882796</v>
+        <v>481.1936039882797</v>
       </c>
       <c r="M41" t="n">
-        <v>523.7841661874651</v>
+        <v>335.0239452789104</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>518.6814024188064</v>
       </c>
       <c r="O41" t="n">
-        <v>453.9881501554984</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>184.6584870415048</v>
+        <v>378.5688206236426</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>254.6221755197209</v>
       </c>
       <c r="R41" t="n">
-        <v>16.66865393139766</v>
+        <v>6.336676446133687</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>106.540213047771</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>119.7658284940432</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37877,13 +37877,13 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1.544732635469737</v>
       </c>
       <c r="R42" t="n">
-        <v>44.93281130657402</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>30.16246322483185</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -37920,46 +37920,46 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>46.93570940893864</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>47.75131217233331</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>26.2560679716482</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>47.22860079653193</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>9.013243088704046</v>
+        <v>12.56588141601634</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>97.3839339264734</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>62.81921017384959</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>261.7404231887204</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>88.08681549061457</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>31.10017808356216</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.12790540246198</v>
+        <v>204.2110112980372</v>
       </c>
       <c r="K44" t="n">
-        <v>383.1666954585182</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>481.1936039882797</v>
+        <v>372.7987111033578</v>
       </c>
       <c r="M44" t="n">
-        <v>61.44020402850258</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>487.1856091837014</v>
+        <v>518.6814024188066</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>453.9881501554985</v>
       </c>
       <c r="P44" t="n">
-        <v>378.5688206236428</v>
+        <v>184.6584870415049</v>
       </c>
       <c r="Q44" t="n">
         <v>254.622175519721</v>
       </c>
       <c r="R44" t="n">
-        <v>16.66865393139771</v>
+        <v>85.01373059929946</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1.544732635469694</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>119.7658284940433</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38114,13 +38114,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>151.473024354345</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>30.16246322483185</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>44.7699563532762</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>32.65008676714073</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>72.44728994755221</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>87.08540799854948</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>105.4278135388714</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>67.83008960658263</v>
+        <v>92.17709016820268</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>228.4936413372173</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
